--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,16 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,16 л..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E673F-A446-4693-8C5F-CC082EE49E6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB0BC0-3117-453B-B323-5EEB28E530A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -481,30 +481,6 @@
     <t xml:space="preserve">Полная высота </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Вес, гр. (ном. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> гр.)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
   <si>
@@ -524,6 +500,9 @@
   </si>
   <si>
     <t>III-3-53-160-2</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 135 гр.)</t>
   </si>
 </sst>
 </file>
@@ -3535,8 +3514,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3629,22 +3606,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4095,6 +4063,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6701,25 +6684,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="503" t="s">
+      <c r="A1" s="496" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="504" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="505"/>
-      <c r="C2" s="505"/>
-      <c r="D2" s="505"/>
-      <c r="E2" s="506"/>
+      <c r="A2" s="497" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="499"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6730,45 +6713,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="501" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="509"/>
-      <c r="C4" s="509"/>
-      <c r="D4" s="509"/>
-      <c r="E4" s="509"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="510" t="s">
+      <c r="A5" s="503" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="511"/>
-      <c r="C5" s="511"/>
-      <c r="D5" s="511"/>
-      <c r="E5" s="512"/>
+      <c r="B5" s="504"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="503" t="s">
+      <c r="A7" s="496" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="507"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="507"/>
-      <c r="E7" s="507"/>
+      <c r="B7" s="500"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="500"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="513"/>
-      <c r="B8" s="514"/>
-      <c r="C8" s="514"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="515"/>
+      <c r="A8" s="506"/>
+      <c r="B8" s="507"/>
+      <c r="C8" s="507"/>
+      <c r="D8" s="507"/>
+      <c r="E8" s="508"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="503" t="s">
+      <c r="A10" s="496" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="503"/>
+      <c r="B10" s="496"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6779,33 +6762,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="501"/>
-      <c r="B11" s="502"/>
+      <c r="A11" s="494"/>
+      <c r="B11" s="495"/>
       <c r="D11" s="369">
         <v>43959</v>
       </c>
-      <c r="F11" s="516" t="s">
+      <c r="F11" s="509" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="516"/>
-      <c r="H11" s="516"/>
-      <c r="I11" s="516"/>
-      <c r="J11" s="517" t="s">
+      <c r="G11" s="509"/>
+      <c r="H11" s="509"/>
+      <c r="I11" s="509"/>
+      <c r="J11" s="510" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="517"/>
+      <c r="K11" s="510"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="516" t="s">
+      <c r="F12" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="516"/>
-      <c r="H12" s="516"/>
-      <c r="I12" s="516"/>
-      <c r="J12" s="517" t="s">
+      <c r="G12" s="509"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="510" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="517"/>
+      <c r="K12" s="510"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6820,19 +6803,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="472" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="516" t="s">
+      <c r="F13" s="509" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="516"/>
-      <c r="H13" s="516"/>
-      <c r="I13" s="516"/>
-      <c r="J13" s="517" t="s">
+      <c r="G13" s="509"/>
+      <c r="H13" s="509"/>
+      <c r="I13" s="509"/>
+      <c r="J13" s="510" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="517"/>
+      <c r="K13" s="510"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -6842,7 +6825,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
@@ -6860,7 +6843,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
@@ -6878,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
@@ -6896,7 +6879,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
@@ -6914,7 +6897,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
@@ -6932,7 +6915,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
@@ -6950,7 +6933,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
@@ -6984,7 +6967,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="366"/>
       <c r="E22" s="366">
@@ -7016,7 +6999,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
@@ -7034,7 +7017,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="366"/>
       <c r="E25" s="366">
@@ -7050,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="372" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="366">
         <v>1.5</v>
@@ -7067,8 +7050,8 @@
       <c r="B27" s="373">
         <v>0</v>
       </c>
-      <c r="C27" s="499" t="s">
-        <v>149</v>
+      <c r="C27" s="490" t="s">
+        <v>148</v>
       </c>
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
@@ -7089,15 +7072,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="500" t="s">
+      <c r="A29" s="493" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="500"/>
-      <c r="C29" s="500"/>
+      <c r="B29" s="493"/>
+      <c r="C29" s="493"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -7170,47 +7153,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7221,9 +7204,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7242,22 +7225,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7268,22 +7251,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7294,27 +7277,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7612,7 +7595,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="185"/>
       <c r="I17" s="185"/>
@@ -7681,25 +7664,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="635" t="s">
+      <c r="L21" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="635"/>
-      <c r="N21" s="635"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="489"/>
+      <c r="R21" s="489"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="567" t="s">
+      <c r="O22" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="567"/>
-      <c r="Q22" s="568" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="569"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7789,47 +7772,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7840,9 +7823,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7861,22 +7844,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7887,22 +7870,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7913,27 +7896,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8246,12 +8229,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="645" t="s">
+      <c r="B18" s="638" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="646"/>
-      <c r="D18" s="646"/>
-      <c r="E18" s="647"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="640"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8294,25 +8277,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="635" t="s">
+      <c r="L21" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="635"/>
-      <c r="N21" s="635"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="489"/>
+      <c r="R21" s="489"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="567" t="s">
+      <c r="O22" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="567"/>
-      <c r="Q22" s="568" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="569"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8412,47 +8395,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8463,9 +8446,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8484,22 +8467,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8510,22 +8493,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8536,27 +8519,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8859,25 +8842,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="635" t="s">
+      <c r="L19" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="635"/>
-      <c r="N19" s="635"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="628"/>
+      <c r="N19" s="628"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="567" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="567"/>
-      <c r="Q20" s="568" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="569"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8958,47 +8941,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="650">
+      <c r="J2" s="615"/>
+      <c r="K2" s="643">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="651"/>
+      <c r="L2" s="644"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="654"/>
-      <c r="Q2" s="654"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="652"/>
-      <c r="L3" s="653"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="646"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9009,9 +8992,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9030,22 +9013,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9056,22 +9039,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9082,27 +9065,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9171,7 +9154,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="378" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="280">
         <v>0.1</v>
@@ -9372,25 +9355,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="635" t="s">
+      <c r="L18" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="635"/>
-      <c r="N18" s="635"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="628"/>
+      <c r="N18" s="628"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="489"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="567" t="s">
+      <c r="O19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="567"/>
-      <c r="Q19" s="568" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="569"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9443,8 +9426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9465,11 +9448,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="473" t="s">
+      <c r="B1" s="471" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="472" t="str">
+      <c r="D1" s="470" t="str">
         <f>Данные!A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
@@ -9485,7 +9468,7 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9499,17 +9482,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="520" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="A3" s="513" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="513"/>
+      <c r="C3" s="513"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="513"/>
+      <c r="G3" s="513"/>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9822,7 +9805,7 @@
         <f>Данные!$B22</f>
         <v>18</v>
       </c>
-      <c r="E14" s="471">
+      <c r="E14" s="469">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -9988,7 +9971,7 @@
         <v>125</v>
       </c>
       <c r="J20" s="421" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
@@ -9999,33 +9982,35 @@
         <v>16800000</v>
       </c>
       <c r="B21" s="423">
-        <v>43759</v>
+        <v>43984</v>
       </c>
       <c r="C21" s="424">
-        <v>43765</v>
+        <v>43986</v>
       </c>
       <c r="D21" s="423">
-        <v>43769</v>
+        <v>43993</v>
       </c>
       <c r="E21" s="425">
-        <v>948096</v>
+        <v>745790</v>
       </c>
       <c r="F21" s="425">
-        <v>1031915</v>
+        <v>820325</v>
       </c>
       <c r="G21" s="426">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+        <v>4.8828869047619045E-2</v>
       </c>
       <c r="H21" s="427">
         <f>A21-F21</f>
-        <v>15768085</v>
+        <v>15979675</v>
       </c>
       <c r="I21" s="428">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="492"/>
+        <v>0.95117113095238093</v>
+      </c>
+      <c r="J21" s="648">
+        <v>137</v>
+      </c>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
@@ -10042,13 +10027,13 @@
       </c>
       <c r="H22" s="433">
         <f>H21-F22</f>
-        <v>15768085</v>
+        <v>15979675</v>
       </c>
       <c r="I22" s="434">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="493"/>
+        <v>0.95117113095238093</v>
+      </c>
+      <c r="J22" s="649"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
@@ -10062,7 +10047,7 @@
       <c r="G23" s="438"/>
       <c r="H23" s="439"/>
       <c r="I23" s="440"/>
-      <c r="J23" s="494"/>
+      <c r="J23" s="650"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
@@ -10076,7 +10061,7 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="441"/>
-      <c r="J24" s="495"/>
+      <c r="J24" s="651"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -10090,7 +10075,7 @@
       <c r="G25" s="442"/>
       <c r="H25" s="439"/>
       <c r="I25" s="440"/>
-      <c r="J25" s="494"/>
+      <c r="J25" s="650"/>
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
@@ -10104,7 +10089,7 @@
       <c r="G26" s="442"/>
       <c r="H26" s="439"/>
       <c r="I26" s="440"/>
-      <c r="J26" s="494"/>
+      <c r="J26" s="650"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -10118,7 +10103,7 @@
       <c r="G27" s="442"/>
       <c r="H27" s="439"/>
       <c r="I27" s="440"/>
-      <c r="J27" s="494"/>
+      <c r="J27" s="650"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -10132,7 +10117,7 @@
       <c r="G28" s="442"/>
       <c r="H28" s="439"/>
       <c r="I28" s="440"/>
-      <c r="J28" s="494"/>
+      <c r="J28" s="650"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -10146,7 +10131,7 @@
       <c r="G29" s="444"/>
       <c r="H29" s="439"/>
       <c r="I29" s="445"/>
-      <c r="J29" s="496"/>
+      <c r="J29" s="652"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -10160,7 +10145,7 @@
       <c r="G30" s="442"/>
       <c r="H30" s="439"/>
       <c r="I30" s="445"/>
-      <c r="J30" s="496"/>
+      <c r="J30" s="652"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
@@ -10174,7 +10159,7 @@
       <c r="G31" s="450"/>
       <c r="H31" s="451"/>
       <c r="I31" s="452"/>
-      <c r="J31" s="497"/>
+      <c r="J31" s="653"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
@@ -10185,29 +10170,29 @@
       <c r="B32" s="454"/>
       <c r="C32" s="454"/>
       <c r="D32" s="455"/>
-      <c r="E32" s="456">
+      <c r="E32" s="491">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="457">
+        <v>745790</v>
+      </c>
+      <c r="F32" s="492">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="458">
+        <v>820325</v>
+      </c>
+      <c r="G32" s="456">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="459">
+        <v>4.8828869047619045E-2</v>
+      </c>
+      <c r="H32" s="457">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="460">
+        <v>15979675</v>
+      </c>
+      <c r="I32" s="458">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="498"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="461"/>
+        <v>0.95117113095238093</v>
+      </c>
+      <c r="J32" s="654"/>
+      <c r="K32" s="459"/>
+      <c r="L32" s="459"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10222,12 +10207,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="521" t="s">
+      <c r="A36" s="514" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="521"/>
-      <c r="C36" s="521"/>
-      <c r="D36" s="521"/>
+      <c r="B36" s="514"/>
+      <c r="C36" s="514"/>
+      <c r="D36" s="514"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10236,14 +10221,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="522" t="s">
+      <c r="A37" s="515" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="522"/>
-      <c r="C37" s="462" t="s">
+      <c r="B37" s="515"/>
+      <c r="C37" s="460" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="462" t="s">
+      <c r="D37" s="460" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="383"/>
@@ -10254,27 +10239,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="523">
+      <c r="A38" s="516">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="524"/>
-      <c r="C38" s="463">
+        <v>15979675</v>
+      </c>
+      <c r="B38" s="517"/>
+      <c r="C38" s="461">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="464">
+        <v>0.95117113095238093</v>
+      </c>
+      <c r="D38" s="462">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="465" t="s">
+        <v>118.89639136904762</v>
+      </c>
+      <c r="E38" s="463" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
-      <c r="I38" s="465"/>
-      <c r="J38" s="465"/>
+      <c r="F38" s="463"/>
+      <c r="G38" s="463"/>
+      <c r="H38" s="463"/>
+      <c r="I38" s="463"/>
+      <c r="J38" s="463"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10301,8 +10286,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="466"/>
-      <c r="C41" s="466"/>
+      <c r="B41" s="464"/>
+      <c r="C41" s="464"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10312,113 +10297,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="467"/>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
-      <c r="I42" s="525"/>
-      <c r="J42" s="526"/>
+      <c r="A42" s="465"/>
+      <c r="B42" s="465"/>
+      <c r="C42" s="465"/>
+      <c r="D42" s="465"/>
+      <c r="E42" s="465"/>
+      <c r="F42" s="465"/>
+      <c r="G42" s="465"/>
+      <c r="H42" s="465"/>
+      <c r="I42" s="518"/>
+      <c r="J42" s="519"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="468"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
+      <c r="A43" s="466"/>
+      <c r="B43" s="467"/>
+      <c r="C43" s="467"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="469"/>
+      <c r="F43" s="467"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="469"/>
+      <c r="H43" s="467"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="468"/>
-      <c r="B44" s="469"/>
-      <c r="C44" s="469"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="469"/>
+      <c r="A44" s="466"/>
+      <c r="B44" s="467"/>
+      <c r="C44" s="467"/>
+      <c r="D44" s="467"/>
+      <c r="E44" s="467"/>
+      <c r="F44" s="467"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="469"/>
+      <c r="H44" s="467"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="468"/>
-      <c r="B45" s="469"/>
-      <c r="C45" s="469"/>
+      <c r="A45" s="466"/>
+      <c r="B45" s="467"/>
+      <c r="C45" s="467"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="469"/>
+      <c r="F45" s="467"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="469"/>
+      <c r="H45" s="467"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="468"/>
-      <c r="B46" s="469"/>
-      <c r="C46" s="469"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="469"/>
+      <c r="A46" s="466"/>
+      <c r="B46" s="467"/>
+      <c r="C46" s="467"/>
+      <c r="D46" s="467"/>
+      <c r="E46" s="467"/>
+      <c r="F46" s="467"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="469"/>
+      <c r="H46" s="467"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="468"/>
-      <c r="B47" s="469"/>
-      <c r="C47" s="469"/>
+      <c r="A47" s="466"/>
+      <c r="B47" s="467"/>
+      <c r="C47" s="467"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="469"/>
+      <c r="F47" s="467"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="469"/>
+      <c r="H47" s="467"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="468"/>
-      <c r="B48" s="469"/>
+      <c r="A48" s="466"/>
+      <c r="B48" s="467"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
+      <c r="D48" s="468"/>
+      <c r="E48" s="468"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="468"/>
-      <c r="B49" s="469"/>
-      <c r="C49" s="469"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
+      <c r="A49" s="466"/>
+      <c r="B49" s="467"/>
+      <c r="C49" s="467"/>
+      <c r="D49" s="467"/>
+      <c r="E49" s="467"/>
+      <c r="F49" s="467"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="469"/>
+      <c r="H49" s="467"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="468"/>
-      <c r="B50" s="469"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
+      <c r="A50" s="466"/>
+      <c r="B50" s="467"/>
+      <c r="C50" s="467"/>
+      <c r="D50" s="467"/>
+      <c r="E50" s="467"/>
+      <c r="F50" s="467"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="469"/>
+      <c r="H50" s="467"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="468"/>
-      <c r="B51" s="469"/>
-      <c r="C51" s="469"/>
+      <c r="A51" s="466"/>
+      <c r="B51" s="467"/>
+      <c r="C51" s="467"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="469"/>
+      <c r="F51" s="467"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="469"/>
+      <c r="H51" s="467"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="519"/>
-      <c r="E52" s="465"/>
+      <c r="B52" s="511"/>
+      <c r="C52" s="511"/>
+      <c r="D52" s="512"/>
+      <c r="E52" s="463"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10426,31 +10411,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="467"/>
-      <c r="B53" s="467"/>
-      <c r="C53" s="467"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="467"/>
-      <c r="F53" s="467"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="467"/>
-      <c r="I53" s="525"/>
-      <c r="J53" s="526"/>
+      <c r="A53" s="465"/>
+      <c r="B53" s="465"/>
+      <c r="C53" s="465"/>
+      <c r="D53" s="465"/>
+      <c r="E53" s="465"/>
+      <c r="F53" s="465"/>
+      <c r="G53" s="465"/>
+      <c r="H53" s="465"/>
+      <c r="I53" s="518"/>
+      <c r="J53" s="519"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="468"/>
+      <c r="A54" s="466"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="469"/>
-      <c r="I54" s="527"/>
-      <c r="J54" s="527"/>
+      <c r="H54" s="467"/>
+      <c r="I54" s="520"/>
+      <c r="J54" s="520"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="468"/>
+      <c r="A55" s="466"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10458,8 +10443,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="527"/>
-      <c r="J55" s="527"/>
+      <c r="I55" s="520"/>
+      <c r="J55" s="520"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10472,12 +10457,12 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="525"/>
-      <c r="C61" s="526"/>
+      <c r="B61" s="518"/>
+      <c r="C61" s="519"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="525"/>
-      <c r="C68" s="526"/>
+      <c r="B68" s="518"/>
+      <c r="C68" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10495,7 +10480,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10506,7 +10491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G40" sqref="G40:G41"/>
     </sheetView>
   </sheetViews>
@@ -10574,47 +10559,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="529" t="s">
+      <c r="A11" s="522" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="529"/>
-      <c r="C11" s="529"/>
-      <c r="D11" s="529"/>
-      <c r="E11" s="529"/>
-      <c r="F11" s="529"/>
-      <c r="G11" s="529"/>
-      <c r="H11" s="529"/>
-      <c r="I11" s="529"/>
-      <c r="J11" s="529"/>
+      <c r="B11" s="522"/>
+      <c r="C11" s="522"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="522"/>
+      <c r="F11" s="522"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="522"/>
+      <c r="J11" s="522"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="528" t="s">
+      <c r="A12" s="521" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="528"/>
-      <c r="C12" s="528"/>
-      <c r="D12" s="528"/>
-      <c r="E12" s="528"/>
-      <c r="F12" s="528"/>
-      <c r="G12" s="528"/>
-      <c r="H12" s="528"/>
-      <c r="I12" s="528"/>
-      <c r="J12" s="528"/>
+      <c r="B12" s="521"/>
+      <c r="C12" s="521"/>
+      <c r="D12" s="521"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="521"/>
+      <c r="G12" s="521"/>
+      <c r="H12" s="521"/>
+      <c r="I12" s="521"/>
+      <c r="J12" s="521"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="530" t="str">
+      <c r="A13" s="523" t="str">
         <f>Данные!A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="B13" s="529"/>
-      <c r="C13" s="529"/>
-      <c r="D13" s="529"/>
-      <c r="E13" s="529"/>
-      <c r="F13" s="529"/>
-      <c r="G13" s="529"/>
-      <c r="H13" s="529"/>
-      <c r="I13" s="529"/>
-      <c r="J13" s="529"/>
+      <c r="B13" s="522"/>
+      <c r="C13" s="522"/>
+      <c r="D13" s="522"/>
+      <c r="E13" s="522"/>
+      <c r="F13" s="522"/>
+      <c r="G13" s="522"/>
+      <c r="H13" s="522"/>
+      <c r="I13" s="522"/>
+      <c r="J13" s="522"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10739,493 +10724,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="527" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="534" t="s">
+      <c r="B22" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="534"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="534" t="s">
+      <c r="C22" s="527"/>
+      <c r="D22" s="527"/>
+      <c r="E22" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="534"/>
-      <c r="G22" s="552" t="s">
+      <c r="F22" s="527"/>
+      <c r="G22" s="545" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="534" t="s">
+      <c r="H22" s="527" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
+      <c r="I22" s="527"/>
+      <c r="J22" s="527"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="534"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="534"/>
-      <c r="E23" s="534"/>
-      <c r="F23" s="534"/>
-      <c r="G23" s="552"/>
-      <c r="H23" s="534"/>
-      <c r="I23" s="534"/>
-      <c r="J23" s="534"/>
+      <c r="A23" s="527"/>
+      <c r="B23" s="527"/>
+      <c r="C23" s="527"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="527"/>
+      <c r="G23" s="545"/>
+      <c r="H23" s="527"/>
+      <c r="I23" s="527"/>
+      <c r="J23" s="527"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="535">
+      <c r="A24" s="528">
         <v>1</v>
       </c>
-      <c r="B24" s="549" t="s">
+      <c r="B24" s="542" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="550"/>
-      <c r="D24" s="551"/>
-      <c r="E24" s="537" t="str">
+      <c r="C24" s="543"/>
+      <c r="D24" s="544"/>
+      <c r="E24" s="530" t="str">
         <f>Данные!C14</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F24" s="538"/>
-      <c r="G24" s="541">
+      <c r="F24" s="531"/>
+      <c r="G24" s="534">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="543"/>
-      <c r="I24" s="544"/>
-      <c r="J24" s="545"/>
+      <c r="H24" s="536"/>
+      <c r="I24" s="537"/>
+      <c r="J24" s="538"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="536"/>
-      <c r="B25" s="531" t="str">
+      <c r="A25" s="529"/>
+      <c r="B25" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C25" s="532"/>
-      <c r="D25" s="533"/>
-      <c r="E25" s="539"/>
-      <c r="F25" s="540"/>
-      <c r="G25" s="542"/>
-      <c r="H25" s="546"/>
-      <c r="I25" s="547"/>
-      <c r="J25" s="548"/>
+      <c r="C25" s="525"/>
+      <c r="D25" s="526"/>
+      <c r="E25" s="532"/>
+      <c r="F25" s="533"/>
+      <c r="G25" s="535"/>
+      <c r="H25" s="539"/>
+      <c r="I25" s="540"/>
+      <c r="J25" s="541"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="535">
+      <c r="A26" s="528">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="553" t="s">
+      <c r="B26" s="546" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="554"/>
-      <c r="D26" s="555"/>
-      <c r="E26" s="537" t="str">
+      <c r="C26" s="547"/>
+      <c r="D26" s="548"/>
+      <c r="E26" s="530" t="str">
         <f>Данные!C15</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F26" s="538"/>
-      <c r="G26" s="541">
+      <c r="F26" s="531"/>
+      <c r="G26" s="534">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="543"/>
-      <c r="I26" s="544"/>
-      <c r="J26" s="545"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="538"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="536"/>
-      <c r="B27" s="531" t="str">
+      <c r="A27" s="529"/>
+      <c r="B27" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C27" s="532"/>
-      <c r="D27" s="533"/>
-      <c r="E27" s="539"/>
-      <c r="F27" s="540"/>
-      <c r="G27" s="542"/>
-      <c r="H27" s="546"/>
-      <c r="I27" s="547"/>
-      <c r="J27" s="548"/>
+      <c r="C27" s="525"/>
+      <c r="D27" s="526"/>
+      <c r="E27" s="532"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="535"/>
+      <c r="H27" s="539"/>
+      <c r="I27" s="540"/>
+      <c r="J27" s="541"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="535">
+      <c r="A28" s="528">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="553" t="s">
+      <c r="B28" s="546" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="554"/>
-      <c r="D28" s="555"/>
-      <c r="E28" s="537" t="str">
+      <c r="C28" s="547"/>
+      <c r="D28" s="548"/>
+      <c r="E28" s="530" t="str">
         <f>Данные!C16</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F28" s="538"/>
-      <c r="G28" s="541">
+      <c r="F28" s="531"/>
+      <c r="G28" s="534">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="543"/>
-      <c r="I28" s="544"/>
-      <c r="J28" s="545"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="537"/>
+      <c r="J28" s="538"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="536"/>
-      <c r="B29" s="531" t="str">
+      <c r="A29" s="529"/>
+      <c r="B29" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C29" s="532"/>
-      <c r="D29" s="533"/>
-      <c r="E29" s="539"/>
-      <c r="F29" s="540"/>
-      <c r="G29" s="542"/>
-      <c r="H29" s="546"/>
-      <c r="I29" s="547"/>
-      <c r="J29" s="548"/>
+      <c r="C29" s="525"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="532"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="535"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="540"/>
+      <c r="J29" s="541"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="535">
+      <c r="A30" s="528">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="553" t="s">
+      <c r="B30" s="546" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="554"/>
-      <c r="D30" s="555"/>
-      <c r="E30" s="537" t="str">
+      <c r="C30" s="547"/>
+      <c r="D30" s="548"/>
+      <c r="E30" s="530" t="str">
         <f>Данные!C17</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F30" s="538"/>
-      <c r="G30" s="541">
+      <c r="F30" s="531"/>
+      <c r="G30" s="534">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="543"/>
-      <c r="I30" s="544"/>
-      <c r="J30" s="545"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="537"/>
+      <c r="J30" s="538"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="536"/>
-      <c r="B31" s="531" t="str">
+      <c r="A31" s="529"/>
+      <c r="B31" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C31" s="532"/>
-      <c r="D31" s="533"/>
-      <c r="E31" s="556"/>
-      <c r="F31" s="540"/>
-      <c r="G31" s="542"/>
-      <c r="H31" s="546"/>
-      <c r="I31" s="547"/>
-      <c r="J31" s="548"/>
+      <c r="C31" s="525"/>
+      <c r="D31" s="526"/>
+      <c r="E31" s="549"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="535"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="535">
+      <c r="A32" s="528">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="553" t="s">
+      <c r="B32" s="546" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="554"/>
-      <c r="D32" s="555"/>
-      <c r="E32" s="537" t="str">
+      <c r="C32" s="547"/>
+      <c r="D32" s="548"/>
+      <c r="E32" s="530" t="str">
         <f>Данные!C18</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F32" s="538"/>
-      <c r="G32" s="541">
+      <c r="F32" s="531"/>
+      <c r="G32" s="534">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="543"/>
-      <c r="I32" s="544"/>
-      <c r="J32" s="545"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="536"/>
-      <c r="B33" s="531" t="str">
+      <c r="A33" s="529"/>
+      <c r="B33" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C33" s="532"/>
-      <c r="D33" s="533"/>
-      <c r="E33" s="556"/>
-      <c r="F33" s="540"/>
-      <c r="G33" s="542"/>
-      <c r="H33" s="546"/>
-      <c r="I33" s="547"/>
-      <c r="J33" s="548"/>
+      <c r="C33" s="525"/>
+      <c r="D33" s="526"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="540"/>
+      <c r="J33" s="541"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="535">
+      <c r="A34" s="528">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="553" t="s">
+      <c r="B34" s="546" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="554"/>
-      <c r="D34" s="555"/>
-      <c r="E34" s="537" t="str">
+      <c r="C34" s="547"/>
+      <c r="D34" s="548"/>
+      <c r="E34" s="530" t="str">
         <f>Данные!C19</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F34" s="538"/>
-      <c r="G34" s="541">
+      <c r="F34" s="531"/>
+      <c r="G34" s="534">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="H34" s="543"/>
-      <c r="I34" s="544"/>
-      <c r="J34" s="545"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="537"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="536"/>
-      <c r="B35" s="531" t="str">
+      <c r="A35" s="529"/>
+      <c r="B35" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C35" s="532"/>
-      <c r="D35" s="533"/>
-      <c r="E35" s="556"/>
-      <c r="F35" s="540"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="546"/>
-      <c r="I35" s="547"/>
-      <c r="J35" s="548"/>
+      <c r="C35" s="525"/>
+      <c r="D35" s="526"/>
+      <c r="E35" s="549"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="541"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="535">
+      <c r="A36" s="528">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="553" t="s">
+      <c r="B36" s="546" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="554"/>
-      <c r="D36" s="555"/>
-      <c r="E36" s="537" t="str">
+      <c r="C36" s="547"/>
+      <c r="D36" s="548"/>
+      <c r="E36" s="530" t="str">
         <f>Данные!C20</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F36" s="538"/>
-      <c r="G36" s="541">
+      <c r="F36" s="531"/>
+      <c r="G36" s="534">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="543"/>
-      <c r="I36" s="544"/>
-      <c r="J36" s="545"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="537"/>
+      <c r="J36" s="538"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="536"/>
-      <c r="B37" s="531" t="str">
+      <c r="A37" s="529"/>
+      <c r="B37" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C37" s="532"/>
-      <c r="D37" s="533"/>
-      <c r="E37" s="556"/>
-      <c r="F37" s="540"/>
-      <c r="G37" s="542"/>
-      <c r="H37" s="546"/>
-      <c r="I37" s="547"/>
-      <c r="J37" s="548"/>
+      <c r="C37" s="525"/>
+      <c r="D37" s="526"/>
+      <c r="E37" s="549"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="535"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="535">
+      <c r="A38" s="528">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="553" t="s">
+      <c r="B38" s="546" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="554"/>
-      <c r="D38" s="555"/>
-      <c r="E38" s="537" t="str">
+      <c r="C38" s="547"/>
+      <c r="D38" s="548"/>
+      <c r="E38" s="530" t="str">
         <f>Данные!C25</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F38" s="538"/>
-      <c r="G38" s="541">
+      <c r="F38" s="531"/>
+      <c r="G38" s="534">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="H38" s="543"/>
-      <c r="I38" s="544"/>
-      <c r="J38" s="545"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="537"/>
+      <c r="J38" s="538"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="536"/>
-      <c r="B39" s="531" t="str">
+      <c r="A39" s="529"/>
+      <c r="B39" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C39" s="532"/>
-      <c r="D39" s="533"/>
-      <c r="E39" s="556"/>
-      <c r="F39" s="540"/>
-      <c r="G39" s="542"/>
-      <c r="H39" s="546"/>
-      <c r="I39" s="547"/>
-      <c r="J39" s="548"/>
+      <c r="C39" s="525"/>
+      <c r="D39" s="526"/>
+      <c r="E39" s="549"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="535"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="535">
+      <c r="A40" s="528">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="553" t="s">
+      <c r="B40" s="546" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="554"/>
-      <c r="D40" s="555"/>
-      <c r="E40" s="537">
+      <c r="C40" s="547"/>
+      <c r="D40" s="548"/>
+      <c r="E40" s="530">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="538"/>
-      <c r="G40" s="541">
+      <c r="F40" s="531"/>
+      <c r="G40" s="534">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="543"/>
-      <c r="I40" s="544"/>
-      <c r="J40" s="545"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="537"/>
+      <c r="J40" s="538"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="536"/>
-      <c r="B41" s="531" t="str">
+      <c r="A41" s="529"/>
+      <c r="B41" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C41" s="532"/>
-      <c r="D41" s="533"/>
-      <c r="E41" s="556"/>
-      <c r="F41" s="540"/>
-      <c r="G41" s="542"/>
-      <c r="H41" s="546"/>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="C41" s="525"/>
+      <c r="D41" s="526"/>
+      <c r="E41" s="549"/>
+      <c r="F41" s="533"/>
+      <c r="G41" s="535"/>
+      <c r="H41" s="539"/>
+      <c r="I41" s="540"/>
+      <c r="J41" s="541"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="535">
+      <c r="A42" s="528">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="553" t="s">
+      <c r="B42" s="546" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="554"/>
-      <c r="D42" s="555"/>
-      <c r="E42" s="537" t="str">
+      <c r="C42" s="547"/>
+      <c r="D42" s="548"/>
+      <c r="E42" s="530" t="str">
         <f>Данные!C26</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F42" s="538"/>
-      <c r="G42" s="541">
+      <c r="F42" s="531"/>
+      <c r="G42" s="534">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="543"/>
-      <c r="I42" s="544"/>
-      <c r="J42" s="545"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="536"/>
-      <c r="B43" s="531" t="str">
+      <c r="A43" s="529"/>
+      <c r="B43" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C43" s="532"/>
-      <c r="D43" s="533"/>
-      <c r="E43" s="556"/>
-      <c r="F43" s="540"/>
-      <c r="G43" s="542"/>
-      <c r="H43" s="546"/>
-      <c r="I43" s="547"/>
-      <c r="J43" s="548"/>
+      <c r="C43" s="525"/>
+      <c r="D43" s="526"/>
+      <c r="E43" s="549"/>
+      <c r="F43" s="533"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="541"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="535">
+      <c r="A44" s="528">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="553" t="s">
+      <c r="B44" s="546" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="554"/>
-      <c r="D44" s="555"/>
-      <c r="E44" s="537" t="str">
+      <c r="C44" s="547"/>
+      <c r="D44" s="548"/>
+      <c r="E44" s="530" t="str">
         <f>Данные!C27</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F44" s="538"/>
-      <c r="G44" s="541">
+      <c r="F44" s="531"/>
+      <c r="G44" s="534">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="543"/>
-      <c r="I44" s="544"/>
-      <c r="J44" s="545"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="537"/>
+      <c r="J44" s="538"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="536"/>
-      <c r="B45" s="531" t="str">
+      <c r="A45" s="529"/>
+      <c r="B45" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C45" s="532"/>
-      <c r="D45" s="533"/>
-      <c r="E45" s="556"/>
-      <c r="F45" s="540"/>
-      <c r="G45" s="542"/>
-      <c r="H45" s="546"/>
-      <c r="I45" s="547"/>
-      <c r="J45" s="548"/>
+      <c r="C45" s="525"/>
+      <c r="D45" s="526"/>
+      <c r="E45" s="549"/>
+      <c r="F45" s="533"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="540"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="535">
+      <c r="A46" s="528">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="553" t="s">
+      <c r="B46" s="546" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="554"/>
-      <c r="D46" s="555"/>
-      <c r="E46" s="537" t="str">
+      <c r="C46" s="547"/>
+      <c r="D46" s="548"/>
+      <c r="E46" s="530" t="str">
         <f>Данные!C24</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F46" s="538"/>
-      <c r="G46" s="541">
+      <c r="F46" s="531"/>
+      <c r="G46" s="534">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="543"/>
-      <c r="I46" s="544"/>
-      <c r="J46" s="545"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="537"/>
+      <c r="J46" s="538"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="536"/>
-      <c r="B47" s="531" t="str">
+      <c r="A47" s="529"/>
+      <c r="B47" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C47" s="532"/>
-      <c r="D47" s="533"/>
-      <c r="E47" s="556"/>
-      <c r="F47" s="540"/>
-      <c r="G47" s="542"/>
-      <c r="H47" s="546"/>
-      <c r="I47" s="547"/>
-      <c r="J47" s="548"/>
+      <c r="C47" s="525"/>
+      <c r="D47" s="526"/>
+      <c r="E47" s="549"/>
+      <c r="F47" s="533"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="539"/>
+      <c r="I47" s="540"/>
+      <c r="J47" s="541"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11488,47 +11473,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="580" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="587" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="588"/>
-      <c r="K2" s="591">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="592"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="583"/>
-      <c r="Q2" s="583"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="584" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="593"/>
-      <c r="L3" s="594"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11539,9 +11524,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="577"/>
-      <c r="C4" s="578"/>
-      <c r="D4" s="579"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11560,22 +11545,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11586,22 +11571,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11612,27 +11597,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="563"/>
-      <c r="D7" s="513">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="562" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="566"/>
-      <c r="K7" s="501">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12100,12 +12085,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="550" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="551"/>
+      <c r="D23" s="551"/>
+      <c r="E23" s="552"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12127,12 +12112,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="595" t="s">
+      <c r="B24" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="596"/>
-      <c r="D24" s="596"/>
-      <c r="E24" s="597"/>
+      <c r="C24" s="589"/>
+      <c r="D24" s="589"/>
+      <c r="E24" s="590"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12175,25 +12160,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="570" t="s">
+      <c r="K27" s="563" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="570"/>
-      <c r="M27" s="570"/>
-      <c r="N27" s="475"/>
-      <c r="O27" s="475"/>
-      <c r="P27" s="491"/>
-      <c r="Q27" s="491"/>
+      <c r="L27" s="563"/>
+      <c r="M27" s="563"/>
+      <c r="N27" s="473"/>
+      <c r="O27" s="473"/>
+      <c r="P27" s="489"/>
+      <c r="Q27" s="489"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="567" t="s">
+      <c r="N28" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="567"/>
-      <c r="P28" s="568" t="s">
+      <c r="O28" s="560"/>
+      <c r="P28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="569"/>
+      <c r="Q28" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12285,50 +12270,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606">
+      <c r="B2" s="599">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="583"/>
-      <c r="Q2" s="583"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12339,9 +12324,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12360,22 +12345,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12386,22 +12371,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12412,27 +12397,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12623,12 +12608,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="604" t="s">
+      <c r="B14" s="597" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="605"/>
-      <c r="D14" s="605"/>
-      <c r="E14" s="605"/>
+      <c r="C14" s="598"/>
+      <c r="D14" s="598"/>
+      <c r="E14" s="598"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12650,13 +12635,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="557" t="s">
+      <c r="B15" s="550" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="558"/>
-      <c r="D15" s="558"/>
-      <c r="E15" s="558"/>
-      <c r="F15" s="603"/>
+      <c r="C15" s="551"/>
+      <c r="D15" s="551"/>
+      <c r="E15" s="551"/>
+      <c r="F15" s="596"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12675,12 +12660,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="595" t="s">
+      <c r="B16" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="596"/>
-      <c r="D16" s="596"/>
-      <c r="E16" s="597"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12727,25 +12712,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="570" t="s">
+      <c r="L19" s="563" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="570"/>
-      <c r="N19" s="570"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="563"/>
+      <c r="N19" s="563"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="567" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="567"/>
-      <c r="Q20" s="568" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="569"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12846,47 +12831,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="580" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="587" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="588"/>
-      <c r="K2" s="591">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="592"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="583"/>
-      <c r="Q2" s="583"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="584" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="593"/>
-      <c r="L3" s="594"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12897,9 +12882,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="577"/>
-      <c r="C4" s="578"/>
-      <c r="D4" s="579"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12918,22 +12903,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12944,22 +12929,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12970,27 +12955,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="563"/>
-      <c r="D7" s="513">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="562" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="566"/>
-      <c r="K7" s="501">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13450,25 +13435,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="635" t="s">
+      <c r="L23" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="635"/>
-      <c r="N23" s="635"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="M23" s="628"/>
+      <c r="N23" s="628"/>
+      <c r="O23" s="473"/>
+      <c r="P23" s="473"/>
+      <c r="Q23" s="489"/>
+      <c r="R23" s="489"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="567" t="s">
+      <c r="O24" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="567"/>
-      <c r="Q24" s="568" t="s">
+      <c r="P24" s="560"/>
+      <c r="Q24" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="569"/>
+      <c r="R24" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13560,47 +13545,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="580" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="587" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="588"/>
-      <c r="K2" s="591">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="592"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="584" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="593"/>
-      <c r="L3" s="594"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13611,9 +13596,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="577"/>
-      <c r="C4" s="578"/>
-      <c r="D4" s="579"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13632,22 +13617,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13658,22 +13643,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13684,27 +13669,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="563"/>
-      <c r="D7" s="513">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="562" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="566"/>
-      <c r="K7" s="501">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13984,25 +13969,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="635" t="s">
+      <c r="L18" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="635"/>
-      <c r="N18" s="635"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="628"/>
+      <c r="N18" s="628"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="489"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="567" t="s">
+      <c r="O19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="567"/>
-      <c r="Q19" s="568" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="569"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14098,60 +14083,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="626"/>
-      <c r="M2" s="637"/>
-      <c r="N2" s="638"/>
-      <c r="O2" s="638"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
-      <c r="R2" s="639"/>
+      <c r="L2" s="619"/>
+      <c r="M2" s="630"/>
+      <c r="N2" s="631"/>
+      <c r="O2" s="631"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
+      <c r="R2" s="632"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
-      <c r="M3" s="640"/>
-      <c r="N3" s="641"/>
-      <c r="O3" s="641"/>
-      <c r="P3" s="641"/>
-      <c r="Q3" s="641"/>
-      <c r="R3" s="642"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
+      <c r="M3" s="633"/>
+      <c r="N3" s="634"/>
+      <c r="O3" s="634"/>
+      <c r="P3" s="634"/>
+      <c r="Q3" s="634"/>
+      <c r="R3" s="635"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14160,95 +14145,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="640"/>
-      <c r="N4" s="641"/>
-      <c r="O4" s="641"/>
-      <c r="P4" s="641"/>
-      <c r="Q4" s="641"/>
-      <c r="R4" s="642"/>
+      <c r="M4" s="633"/>
+      <c r="N4" s="634"/>
+      <c r="O4" s="634"/>
+      <c r="P4" s="634"/>
+      <c r="Q4" s="634"/>
+      <c r="R4" s="635"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
-      <c r="M5" s="640"/>
-      <c r="N5" s="641"/>
-      <c r="O5" s="641"/>
-      <c r="P5" s="641"/>
-      <c r="Q5" s="641"/>
-      <c r="R5" s="642"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
+      <c r="M5" s="633"/>
+      <c r="N5" s="634"/>
+      <c r="O5" s="634"/>
+      <c r="P5" s="634"/>
+      <c r="Q5" s="634"/>
+      <c r="R5" s="635"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
-      <c r="M6" s="640"/>
-      <c r="N6" s="641"/>
-      <c r="O6" s="641"/>
-      <c r="P6" s="641"/>
-      <c r="Q6" s="641"/>
-      <c r="R6" s="642"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
+      <c r="M6" s="633"/>
+      <c r="N6" s="634"/>
+      <c r="O6" s="634"/>
+      <c r="P6" s="634"/>
+      <c r="Q6" s="634"/>
+      <c r="R6" s="635"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
-      <c r="M7" s="640"/>
-      <c r="N7" s="641"/>
-      <c r="O7" s="641"/>
-      <c r="P7" s="641"/>
-      <c r="Q7" s="641"/>
-      <c r="R7" s="642"/>
+      <c r="L7" s="495"/>
+      <c r="M7" s="633"/>
+      <c r="N7" s="634"/>
+      <c r="O7" s="634"/>
+      <c r="P7" s="634"/>
+      <c r="Q7" s="634"/>
+      <c r="R7" s="635"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14398,36 +14383,36 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="476"/>
-      <c r="B13" s="477" t="s">
+    <row r="13" spans="1:19" s="484" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="474"/>
+      <c r="B13" s="475" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="478"/>
-      <c r="D13" s="479">
+      <c r="C13" s="476"/>
+      <c r="D13" s="477">
         <v>0.03</v>
       </c>
-      <c r="E13" s="479">
+      <c r="E13" s="477">
         <v>0</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="478" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="481"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="482"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-      <c r="O13" s="483"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="484"/>
-      <c r="S13" s="485"/>
+      <c r="H13" s="479"/>
+      <c r="I13" s="480"/>
+      <c r="J13" s="480"/>
+      <c r="K13" s="480"/>
+      <c r="L13" s="480"/>
+      <c r="M13" s="481"/>
+      <c r="N13" s="481"/>
+      <c r="O13" s="481"/>
+      <c r="P13" s="481"/>
+      <c r="Q13" s="481"/>
+      <c r="R13" s="482"/>
+      <c r="S13" s="483"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14640,12 +14625,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="595" t="s">
+      <c r="B21" s="588" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="596"/>
-      <c r="D21" s="596"/>
-      <c r="E21" s="597"/>
+      <c r="C21" s="589"/>
+      <c r="D21" s="589"/>
+      <c r="E21" s="590"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14690,25 +14675,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="635" t="s">
+      <c r="L24" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="635"/>
-      <c r="N24" s="635"/>
-      <c r="O24" s="475"/>
-      <c r="P24" s="475"/>
-      <c r="Q24" s="491"/>
-      <c r="R24" s="491"/>
+      <c r="M24" s="628"/>
+      <c r="N24" s="628"/>
+      <c r="O24" s="473"/>
+      <c r="P24" s="473"/>
+      <c r="Q24" s="489"/>
+      <c r="R24" s="489"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="567" t="s">
+      <c r="O25" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="567"/>
-      <c r="Q25" s="568" t="s">
+      <c r="P25" s="560"/>
+      <c r="Q25" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="569"/>
+      <c r="R25" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14798,47 +14783,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14849,9 +14834,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14870,22 +14855,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14896,22 +14881,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14922,27 +14907,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15067,36 +15052,36 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="476"/>
-      <c r="B12" s="487" t="s">
+    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="474"/>
+      <c r="B12" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="488"/>
-      <c r="D12" s="482">
+      <c r="C12" s="486"/>
+      <c r="D12" s="480">
         <v>0</v>
       </c>
-      <c r="E12" s="482">
+      <c r="E12" s="480">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="480" t="s">
+      <c r="F12" s="478" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="489"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="482"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="482"/>
-      <c r="Q12" s="482"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="485"/>
+      <c r="H12" s="487"/>
+      <c r="I12" s="480"/>
+      <c r="J12" s="480"/>
+      <c r="K12" s="480"/>
+      <c r="L12" s="480"/>
+      <c r="M12" s="480"/>
+      <c r="N12" s="480"/>
+      <c r="O12" s="480"/>
+      <c r="P12" s="480"/>
+      <c r="Q12" s="480"/>
+      <c r="R12" s="488"/>
+      <c r="S12" s="483"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15193,12 +15178,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="595" t="s">
+      <c r="B16" s="588" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="596"/>
-      <c r="D16" s="596"/>
-      <c r="E16" s="597"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15243,25 +15228,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="635" t="s">
+      <c r="L19" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="635"/>
-      <c r="N19" s="635"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="628"/>
+      <c r="N19" s="628"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="567" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="567"/>
-      <c r="Q20" s="568" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="569"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,16 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,16 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB0BC0-3117-453B-B323-5EEB28E530A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D5F98-4616-4A57-818B-51799F976100}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="151">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Вес, гр. (ном. 135 гр.)</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2197,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3316,7 +3319,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3476,41 +3478,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3615,6 +3588,60 @@
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4063,21 +4090,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6684,25 +6696,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="500" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="500"/>
-      <c r="C1" s="500"/>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="497" t="s">
+      <c r="A2" s="501" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="499"/>
+      <c r="B2" s="502"/>
+      <c r="C2" s="502"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="503"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6713,45 +6725,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="502"/>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="506"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="503" t="s">
+      <c r="A5" s="507" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="504"/>
-      <c r="C5" s="504"/>
-      <c r="D5" s="504"/>
-      <c r="E5" s="505"/>
+      <c r="B5" s="508"/>
+      <c r="C5" s="508"/>
+      <c r="D5" s="508"/>
+      <c r="E5" s="509"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="496" t="s">
+      <c r="A7" s="500" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="500"/>
-      <c r="C7" s="500"/>
-      <c r="D7" s="500"/>
-      <c r="E7" s="500"/>
+      <c r="B7" s="504"/>
+      <c r="C7" s="504"/>
+      <c r="D7" s="504"/>
+      <c r="E7" s="504"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="506"/>
-      <c r="B8" s="507"/>
-      <c r="C8" s="507"/>
-      <c r="D8" s="507"/>
-      <c r="E8" s="508"/>
+      <c r="A8" s="510"/>
+      <c r="B8" s="511"/>
+      <c r="C8" s="511"/>
+      <c r="D8" s="511"/>
+      <c r="E8" s="512"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496" t="s">
+      <c r="A10" s="500" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="496"/>
+      <c r="B10" s="500"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6762,33 +6774,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="494"/>
-      <c r="B11" s="495"/>
+      <c r="A11" s="498"/>
+      <c r="B11" s="499"/>
       <c r="D11" s="369">
         <v>43959</v>
       </c>
-      <c r="F11" s="509" t="s">
+      <c r="F11" s="513" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="509"/>
-      <c r="H11" s="509"/>
-      <c r="I11" s="509"/>
-      <c r="J11" s="510" t="s">
+      <c r="G11" s="513"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="514" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="510"/>
+      <c r="K11" s="514"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="509" t="s">
+      <c r="F12" s="513" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="509"/>
-      <c r="H12" s="509"/>
-      <c r="I12" s="509"/>
-      <c r="J12" s="510" t="s">
+      <c r="G12" s="513"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="514" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="510"/>
+      <c r="K12" s="514"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6803,19 +6815,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="472" t="s">
+      <c r="E13" s="458" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="509" t="s">
+      <c r="F13" s="513" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="509"/>
-      <c r="H13" s="509"/>
-      <c r="I13" s="509"/>
-      <c r="J13" s="510" t="s">
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="514" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="510"/>
+      <c r="K13" s="514"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7050,7 +7062,7 @@
       <c r="B27" s="373">
         <v>0</v>
       </c>
-      <c r="C27" s="490" t="s">
+      <c r="C27" s="476" t="s">
         <v>148</v>
       </c>
       <c r="D27" s="366"/>
@@ -7072,11 +7084,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="493" t="s">
+      <c r="A29" s="497" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="493"/>
-      <c r="C29" s="493"/>
+      <c r="B29" s="497"/>
+      <c r="C29" s="497"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7153,47 +7165,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7204,9 +7216,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7225,22 +7237,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7251,22 +7263,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7277,27 +7289,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7664,25 +7676,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
+      <c r="O21" s="459"/>
+      <c r="P21" s="459"/>
+      <c r="Q21" s="475"/>
+      <c r="R21" s="475"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="564"/>
+      <c r="Q22" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7772,47 +7784,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7823,9 +7835,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7844,22 +7856,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7870,22 +7882,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7896,27 +7908,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8229,12 +8241,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="638" t="s">
+      <c r="B18" s="642" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="639"/>
-      <c r="D18" s="639"/>
-      <c r="E18" s="640"/>
+      <c r="C18" s="643"/>
+      <c r="D18" s="643"/>
+      <c r="E18" s="644"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8277,25 +8289,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
+      <c r="O21" s="459"/>
+      <c r="P21" s="459"/>
+      <c r="Q21" s="475"/>
+      <c r="R21" s="475"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="564"/>
+      <c r="Q22" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8395,47 +8407,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8446,9 +8458,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8467,22 +8479,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8493,22 +8505,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8519,27 +8531,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8842,25 +8854,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="628" t="s">
+      <c r="L19" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="628"/>
-      <c r="N19" s="628"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="632"/>
+      <c r="N19" s="632"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="475"/>
+      <c r="R19" s="475"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="564"/>
+      <c r="Q20" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8941,47 +8953,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="643">
+      <c r="J2" s="619"/>
+      <c r="K2" s="647">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="644"/>
+      <c r="L2" s="648"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="645"/>
-      <c r="L3" s="646"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="649"/>
+      <c r="L3" s="650"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8992,9 +9004,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9013,22 +9025,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9039,22 +9051,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9065,27 +9077,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9153,7 +9165,7 @@
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="378" t="s">
+      <c r="C10" s="377" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="280">
@@ -9355,25 +9367,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="628" t="s">
+      <c r="L18" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="628"/>
-      <c r="N18" s="628"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="632"/>
+      <c r="N18" s="632"/>
+      <c r="O18" s="459"/>
+      <c r="P18" s="459"/>
+      <c r="Q18" s="475"/>
+      <c r="R18" s="475"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="564"/>
+      <c r="Q19" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9426,8 +9438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9447,103 +9459,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="380"/>
-      <c r="B1" s="471" t="s">
+      <c r="A1" s="379"/>
+      <c r="B1" s="457" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="380"/>
-      <c r="D1" s="470" t="str">
+      <c r="C1" s="379"/>
+      <c r="D1" s="456" t="str">
         <f>Данные!A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="380"/>
-      <c r="B2" s="380" t="s">
+      <c r="A2" s="379"/>
+      <c r="B2" s="379" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="513" t="s">
+      <c r="A3" s="517" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="513"/>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="513"/>
-      <c r="F3" s="513"/>
-      <c r="G3" s="513"/>
-      <c r="H3" s="513"/>
-      <c r="I3" s="513"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="383"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="517"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
+      <c r="I3" s="517"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="381"/>
+      <c r="M3" s="382"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="383"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="F4" s="385"/>
-      <c r="G4" s="386"/>
-      <c r="H4" s="385"/>
-      <c r="I4" s="385"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="382"/>
+      <c r="A4" s="382"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="383"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="384"/>
+      <c r="I4" s="384"/>
+      <c r="J4" s="381"/>
+      <c r="K4" s="381"/>
       <c r="M4" s="364"/>
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="387" t="s">
+      <c r="A5" s="386" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="387" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="388" t="s">
+      <c r="C5" s="387" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="389" t="s">
+      <c r="D5" s="388" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="388" t="s">
+      <c r="E5" s="387" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="388" t="s">
+      <c r="F5" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="388" t="s">
+      <c r="G5" s="387" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="390" t="s">
+      <c r="H5" s="389" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="391"/>
-      <c r="J5" s="391"/>
-      <c r="K5" s="391"/>
-      <c r="L5" s="391"/>
+      <c r="I5" s="390"/>
+      <c r="J5" s="390"/>
+      <c r="K5" s="390"/>
+      <c r="L5" s="390"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="392">
+      <c r="A6" s="391">
         <v>1</v>
       </c>
-      <c r="B6" s="393" t="str">
+      <c r="B6" s="392" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -9551,30 +9563,30 @@
         <f>Данные!C14</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D6" s="394">
+      <c r="D6" s="393">
         <f>Данные!$B14</f>
         <v>24</v>
       </c>
-      <c r="E6" s="394">
+      <c r="E6" s="393">
         <v>24</v>
       </c>
-      <c r="F6" s="395"/>
-      <c r="G6" s="394">
+      <c r="F6" s="394"/>
+      <c r="G6" s="393">
         <f>E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="396"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="397"/>
+      <c r="H6" s="395"/>
+      <c r="I6" s="396"/>
+      <c r="J6" s="382"/>
+      <c r="K6" s="382"/>
+      <c r="L6" s="396"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="398">
+      <c r="A7" s="397">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="399" t="str">
+      <c r="B7" s="398" t="str">
         <f>Данные!A15</f>
         <v>Чистовой поддон</v>
       </c>
@@ -9582,30 +9594,30 @@
         <f>Данные!C15</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D7" s="400">
+      <c r="D7" s="399">
         <f>Данные!$B15</f>
         <v>24</v>
       </c>
-      <c r="E7" s="400">
+      <c r="E7" s="399">
         <v>24</v>
       </c>
-      <c r="F7" s="379"/>
-      <c r="G7" s="400">
+      <c r="F7" s="378"/>
+      <c r="G7" s="399">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
         <v>24</v>
       </c>
-      <c r="H7" s="401"/>
-      <c r="I7" s="397"/>
-      <c r="J7" s="383"/>
-      <c r="K7" s="383"/>
-      <c r="L7" s="397"/>
+      <c r="H7" s="400"/>
+      <c r="I7" s="396"/>
+      <c r="J7" s="382"/>
+      <c r="K7" s="382"/>
+      <c r="L7" s="396"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="398">
+      <c r="A8" s="397">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="399" t="str">
+      <c r="B8" s="398" t="str">
         <f>Данные!A16</f>
         <v>Черновая форма</v>
       </c>
@@ -9613,30 +9625,30 @@
         <f>Данные!C16</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D8" s="400">
+      <c r="D8" s="399">
         <f>Данные!$B16</f>
         <v>32</v>
       </c>
-      <c r="E8" s="400">
+      <c r="E8" s="399">
         <v>32</v>
       </c>
-      <c r="F8" s="379"/>
-      <c r="G8" s="400">
+      <c r="F8" s="378"/>
+      <c r="G8" s="399">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="402"/>
-      <c r="I8" s="397"/>
-      <c r="J8" s="383"/>
-      <c r="K8" s="383"/>
-      <c r="L8" s="397"/>
+      <c r="H8" s="401"/>
+      <c r="I8" s="396"/>
+      <c r="J8" s="382"/>
+      <c r="K8" s="382"/>
+      <c r="L8" s="396"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="398">
+      <c r="A9" s="397">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="399" t="str">
+      <c r="B9" s="398" t="str">
         <f>Данные!A17</f>
         <v>Черновой поддон</v>
       </c>
@@ -9644,30 +9656,30 @@
         <f>Данные!C17</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D9" s="400">
+      <c r="D9" s="399">
         <f>Данные!$B17</f>
         <v>32</v>
       </c>
-      <c r="E9" s="400">
+      <c r="E9" s="399">
         <v>32</v>
       </c>
-      <c r="F9" s="379"/>
-      <c r="G9" s="400">
+      <c r="F9" s="378"/>
+      <c r="G9" s="399">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="402"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="383"/>
-      <c r="L9" s="397"/>
+      <c r="H9" s="401"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="402"/>
+      <c r="K9" s="382"/>
+      <c r="L9" s="396"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="398">
+      <c r="A10" s="397">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="399" t="str">
+      <c r="B10" s="398" t="str">
         <f>Данные!A18</f>
         <v>Горловое кольцо</v>
       </c>
@@ -9675,30 +9687,30 @@
         <f>Данные!C18</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D10" s="400">
+      <c r="D10" s="399">
         <f>Данные!$B18</f>
         <v>70</v>
       </c>
-      <c r="E10" s="400">
+      <c r="E10" s="399">
         <v>130</v>
       </c>
-      <c r="F10" s="379"/>
-      <c r="G10" s="400">
+      <c r="F10" s="378"/>
+      <c r="G10" s="399">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H10" s="402"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="403"/>
-      <c r="L10" s="397"/>
+      <c r="H10" s="401"/>
+      <c r="I10" s="402"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="402"/>
+      <c r="L10" s="396"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="398">
+      <c r="A11" s="397">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="399" t="str">
+      <c r="B11" s="398" t="str">
         <f>Данные!A19</f>
         <v>Направляющее кольцо</v>
       </c>
@@ -9706,30 +9718,30 @@
         <f>Данные!C19</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D11" s="400">
+      <c r="D11" s="399">
         <f>Данные!$B19</f>
         <v>100</v>
       </c>
-      <c r="E11" s="400">
+      <c r="E11" s="399">
         <v>130</v>
       </c>
-      <c r="F11" s="379"/>
-      <c r="G11" s="400">
+      <c r="F11" s="378"/>
+      <c r="G11" s="399">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H11" s="402"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="403"/>
-      <c r="K11" s="383"/>
-      <c r="L11" s="397"/>
+      <c r="H11" s="401"/>
+      <c r="I11" s="396"/>
+      <c r="J11" s="402"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="396"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="398">
+      <c r="A12" s="397">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="399" t="str">
+      <c r="B12" s="398" t="str">
         <f>Данные!A20</f>
         <v>Плунжер</v>
       </c>
@@ -9737,31 +9749,31 @@
         <f>Данные!C20</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D12" s="400">
+      <c r="D12" s="399">
         <f>Данные!$B20</f>
         <v>60</v>
       </c>
-      <c r="E12" s="400">
+      <c r="E12" s="399">
         <v>60</v>
       </c>
-      <c r="F12" s="404"/>
-      <c r="G12" s="400">
+      <c r="F12" s="403"/>
+      <c r="G12" s="399">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H12" s="402"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
-      <c r="L12" s="397"/>
-      <c r="M12" s="405"/>
+      <c r="H12" s="401"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="402"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="396"/>
+      <c r="M12" s="404"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="398">
+      <c r="A13" s="397">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="399" t="str">
+      <c r="B13" s="398" t="str">
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
@@ -9769,31 +9781,31 @@
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="D13" s="400">
+      <c r="D13" s="399">
         <f>Данные!$B21</f>
         <v>0</v>
       </c>
-      <c r="E13" s="400">
+      <c r="E13" s="399">
         <v>18</v>
       </c>
-      <c r="F13" s="406"/>
-      <c r="G13" s="400">
+      <c r="F13" s="405"/>
+      <c r="G13" s="399">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H13" s="402"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="403"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="405"/>
+      <c r="H13" s="401"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="402"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="396"/>
+      <c r="M13" s="404"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="398">
+      <c r="A14" s="397">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="399" t="str">
+      <c r="B14" s="398" t="str">
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
@@ -9801,32 +9813,32 @@
         <f>Данные!C22</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D14" s="400">
+      <c r="D14" s="399">
         <f>Данные!$B22</f>
         <v>18</v>
       </c>
-      <c r="E14" s="469">
+      <c r="E14" s="455">
         <v>24</v>
       </c>
-      <c r="F14" s="379"/>
-      <c r="G14" s="400">
+      <c r="F14" s="378"/>
+      <c r="G14" s="399">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H14" s="402" t="s">
+      <c r="H14" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="403"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="403"/>
-      <c r="L14" s="397"/>
+      <c r="I14" s="402"/>
+      <c r="J14" s="402"/>
+      <c r="K14" s="402"/>
+      <c r="L14" s="396"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="398">
+      <c r="A15" s="397">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="399" t="str">
+      <c r="B15" s="398" t="str">
         <f>Данные!A23</f>
         <v>Воронка</v>
       </c>
@@ -9834,30 +9846,30 @@
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="D15" s="400">
+      <c r="D15" s="399">
         <f>Данные!$B23</f>
         <v>0</v>
       </c>
-      <c r="E15" s="400">
+      <c r="E15" s="399">
         <v>20</v>
       </c>
-      <c r="F15" s="404"/>
-      <c r="G15" s="400">
+      <c r="F15" s="403"/>
+      <c r="G15" s="399">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="402"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="403"/>
-      <c r="L15" s="397"/>
+      <c r="H15" s="401"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="402"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="396"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="398">
+      <c r="A16" s="397">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="399" t="str">
+      <c r="B16" s="398" t="str">
         <f>Данные!A24</f>
         <v>Плита охлаждения</v>
       </c>
@@ -9865,604 +9877,742 @@
         <f>Данные!C24</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D16" s="400">
+      <c r="D16" s="399">
         <f>Данные!$B24</f>
         <v>8</v>
       </c>
-      <c r="E16" s="400">
+      <c r="E16" s="399">
         <v>8</v>
       </c>
-      <c r="F16" s="379"/>
-      <c r="G16" s="400">
+      <c r="F16" s="378"/>
+      <c r="G16" s="399">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H16" s="402"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="403"/>
-      <c r="L16" s="397"/>
+      <c r="H16" s="401"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="396"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="407">
+      <c r="A17" s="406">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="408" t="str">
+      <c r="B17" s="407" t="str">
         <f>Данные!A25</f>
         <v>Охладитель плунжера</v>
       </c>
-      <c r="C17" s="409" t="str">
+      <c r="C17" s="408" t="str">
         <f>Данные!C26</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="D17" s="410">
+      <c r="D17" s="409">
         <f>Данные!$B26</f>
         <v>0</v>
       </c>
-      <c r="E17" s="410">
+      <c r="E17" s="409">
         <v>18</v>
       </c>
-      <c r="F17" s="411"/>
-      <c r="G17" s="410">
+      <c r="F17" s="410"/>
+      <c r="G17" s="409">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H17" s="412"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="403"/>
-      <c r="L17" s="397"/>
+      <c r="H17" s="411"/>
+      <c r="I17" s="402"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="402"/>
+      <c r="L17" s="396"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="414"/>
-      <c r="B18" s="415"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
-      <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="382"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="383"/>
-      <c r="B19" s="417" t="s">
+      <c r="A19" s="382"/>
+      <c r="B19" s="416" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="364"/>
       <c r="D19" s="364"/>
       <c r="E19" s="364"/>
       <c r="F19" s="364"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="418"/>
+      <c r="G19" s="382"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="417"/>
+      <c r="K19" s="417"/>
+      <c r="L19" s="417"/>
     </row>
     <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="387" t="s">
+      <c r="A20" s="386" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="B20" s="387" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="388" t="s">
+      <c r="C20" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="388" t="s">
+      <c r="D20" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="388" t="s">
+      <c r="E20" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="388" t="s">
+      <c r="F20" s="387" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="419" t="s">
+      <c r="G20" s="418" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="420" t="s">
+      <c r="H20" s="419" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="421" t="s">
+      <c r="I20" s="420" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="421" t="s">
+      <c r="J20" s="420" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="391"/>
-      <c r="L20" s="391"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="390"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="422">
+      <c r="A21" s="421">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="423">
+      <c r="B21" s="422">
         <v>43984</v>
       </c>
-      <c r="C21" s="424">
+      <c r="C21" s="423">
         <v>43986</v>
       </c>
-      <c r="D21" s="423">
+      <c r="D21" s="422">
         <v>43993</v>
       </c>
-      <c r="E21" s="425">
+      <c r="E21" s="424">
         <v>745790</v>
       </c>
-      <c r="F21" s="425">
+      <c r="F21" s="424">
         <v>820325</v>
       </c>
-      <c r="G21" s="426">
-        <f>F21/A$21</f>
+      <c r="G21" s="425">
+        <f t="shared" ref="G21:G28" si="2">F21/A$21</f>
         <v>4.8828869047619045E-2</v>
       </c>
-      <c r="H21" s="427">
+      <c r="H21" s="426">
         <f>A21-F21</f>
         <v>15979675</v>
       </c>
-      <c r="I21" s="428">
+      <c r="I21" s="427">
         <f>1-G21</f>
         <v>0.95117113095238093</v>
       </c>
-      <c r="J21" s="648">
+      <c r="J21" s="479">
         <v>137</v>
       </c>
-      <c r="K21" s="403"/>
-      <c r="L21" s="403"/>
+      <c r="K21" s="402"/>
+      <c r="L21" s="402"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
-      <c r="G22" s="426">
-        <f>F22/A$21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="433">
-        <f>H21-F22</f>
-        <v>15979675</v>
-      </c>
-      <c r="I22" s="434">
-        <f>I21-G22</f>
-        <v>0.95117113095238093</v>
-      </c>
-      <c r="J22" s="649"/>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
+      <c r="A22" s="429"/>
+      <c r="B22" s="430">
+        <v>44042</v>
+      </c>
+      <c r="C22" s="483" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="430">
+        <v>44046</v>
+      </c>
+      <c r="E22" s="431">
+        <v>460020</v>
+      </c>
+      <c r="F22" s="431">
+        <v>543015</v>
+      </c>
+      <c r="G22" s="425">
+        <f t="shared" si="2"/>
+        <v>3.2322321428571429E-2</v>
+      </c>
+      <c r="H22" s="432">
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
+        <v>15436660</v>
+      </c>
+      <c r="I22" s="433">
+        <f t="shared" si="3"/>
+        <v>0.91884880952380954</v>
+      </c>
+      <c r="J22" s="480">
+        <v>141</v>
+      </c>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="650"/>
-      <c r="K23" s="403"/>
-      <c r="L23" s="403"/>
+      <c r="A23" s="434"/>
+      <c r="B23" s="435" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="435">
+        <v>44045</v>
+      </c>
+      <c r="D23" s="435">
+        <v>44070</v>
+      </c>
+      <c r="E23" s="436">
+        <v>522750</v>
+      </c>
+      <c r="F23" s="436">
+        <v>569160</v>
+      </c>
+      <c r="G23" s="425">
+        <f t="shared" si="2"/>
+        <v>3.3878571428571432E-2</v>
+      </c>
+      <c r="H23" s="432">
+        <f t="shared" si="3"/>
+        <v>14867500</v>
+      </c>
+      <c r="I23" s="433">
+        <f t="shared" si="3"/>
+        <v>0.88497023809523812</v>
+      </c>
+      <c r="J23" s="481">
+        <v>141</v>
+      </c>
+      <c r="K23" s="402"/>
+      <c r="L23" s="402"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="435"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="651"/>
-      <c r="K24" s="429"/>
-      <c r="L24" s="383"/>
+      <c r="A24" s="434"/>
+      <c r="B24" s="369">
+        <v>44086</v>
+      </c>
+      <c r="C24" s="369">
+        <v>44090</v>
+      </c>
+      <c r="D24" s="369">
+        <v>44105</v>
+      </c>
+      <c r="E24" s="436">
+        <v>1324300</v>
+      </c>
+      <c r="F24" s="436">
+        <v>1427806</v>
+      </c>
+      <c r="G24" s="425">
+        <f t="shared" si="2"/>
+        <v>8.4988452380952387E-2</v>
+      </c>
+      <c r="H24" s="432">
+        <f t="shared" si="3"/>
+        <v>13439694</v>
+      </c>
+      <c r="I24" s="433">
+        <f t="shared" si="3"/>
+        <v>0.79998178571428569</v>
+      </c>
+      <c r="J24" s="484">
+        <v>142</v>
+      </c>
+      <c r="K24" s="428"/>
+      <c r="L24" s="382"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="435"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="650"/>
-      <c r="K25" s="443"/>
-      <c r="L25" s="383"/>
+      <c r="A25" s="434"/>
+      <c r="B25" s="369">
+        <v>44144</v>
+      </c>
+      <c r="C25" s="369">
+        <v>44152</v>
+      </c>
+      <c r="D25" s="369">
+        <v>44166</v>
+      </c>
+      <c r="E25" s="436">
+        <v>2481320</v>
+      </c>
+      <c r="F25" s="436">
+        <v>2591947</v>
+      </c>
+      <c r="G25" s="486">
+        <f t="shared" si="2"/>
+        <v>0.15428255952380954</v>
+      </c>
+      <c r="H25" s="432">
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>10847747</v>
+      </c>
+      <c r="I25" s="433">
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.64569922619047615</v>
+      </c>
+      <c r="J25" s="481">
+        <v>142</v>
+      </c>
+      <c r="K25" s="437"/>
+      <c r="L25" s="382"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="435"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="650"/>
-      <c r="K26" s="429"/>
-      <c r="L26" s="383"/>
+      <c r="A26" s="434"/>
+      <c r="B26" s="369">
+        <v>44221</v>
+      </c>
+      <c r="C26" s="496" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="369">
+        <v>44228</v>
+      </c>
+      <c r="E26" s="436">
+        <v>1874930</v>
+      </c>
+      <c r="F26" s="436">
+        <v>1990518</v>
+      </c>
+      <c r="G26" s="486">
+        <f t="shared" si="2"/>
+        <v>0.11848321428571429</v>
+      </c>
+      <c r="H26" s="432">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>8857229</v>
+      </c>
+      <c r="I26" s="433">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.52721601190476186</v>
+      </c>
+      <c r="J26" s="481">
+        <v>142</v>
+      </c>
+      <c r="K26" s="428"/>
+      <c r="L26" s="382"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="435"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="650"/>
-      <c r="K27" s="429"/>
-      <c r="L27" s="383"/>
+      <c r="A27" s="434"/>
+      <c r="B27" s="496" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="369">
+        <v>44230</v>
+      </c>
+      <c r="D27" s="369">
+        <v>44256</v>
+      </c>
+      <c r="E27" s="436">
+        <v>836400</v>
+      </c>
+      <c r="F27" s="436">
+        <v>866445</v>
+      </c>
+      <c r="G27" s="486">
+        <f t="shared" si="2"/>
+        <v>5.1574107142857144E-2</v>
+      </c>
+      <c r="H27" s="432">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>7990784</v>
+      </c>
+      <c r="I27" s="433">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.47564190476190471</v>
+      </c>
+      <c r="J27" s="481">
+        <v>142</v>
+      </c>
+      <c r="K27" s="428"/>
+      <c r="L27" s="382"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="435"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="650"/>
-      <c r="K28" s="429"/>
-      <c r="L28" s="383"/>
+      <c r="A28" s="434"/>
+      <c r="B28" s="369">
+        <v>44292</v>
+      </c>
+      <c r="C28" s="369">
+        <v>44297</v>
+      </c>
+      <c r="D28" s="369">
+        <v>44319</v>
+      </c>
+      <c r="E28" s="436">
+        <v>1644920</v>
+      </c>
+      <c r="F28" s="436">
+        <v>1723049</v>
+      </c>
+      <c r="G28" s="486">
+        <f t="shared" si="2"/>
+        <v>0.10256244047619048</v>
+      </c>
+      <c r="H28" s="432">
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>6267735</v>
+      </c>
+      <c r="I28" s="433">
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.37307946428571426</v>
+      </c>
+      <c r="J28" s="481">
+        <v>142</v>
+      </c>
+      <c r="K28" s="428"/>
+      <c r="L28" s="382"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="435"/>
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="652"/>
-      <c r="K29" s="429"/>
-      <c r="L29" s="383"/>
+      <c r="A29" s="434"/>
+      <c r="B29" s="369"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="366"/>
+      <c r="E29" s="436"/>
+      <c r="F29" s="436"/>
+      <c r="G29" s="487"/>
+      <c r="H29" s="485"/>
+      <c r="I29" s="488"/>
+      <c r="J29" s="489"/>
+      <c r="K29" s="428"/>
+      <c r="L29" s="382"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="435"/>
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="652"/>
-      <c r="K30" s="429"/>
-      <c r="L30" s="383"/>
+      <c r="A30" s="434"/>
+      <c r="B30" s="369"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="366"/>
+      <c r="E30" s="436"/>
+      <c r="F30" s="436"/>
+      <c r="G30" s="486"/>
+      <c r="H30" s="485"/>
+      <c r="I30" s="488"/>
+      <c r="J30" s="489"/>
+      <c r="K30" s="428"/>
+      <c r="L30" s="382"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="653"/>
-      <c r="K31" s="383"/>
-      <c r="L31" s="383"/>
+      <c r="A31" s="438"/>
+      <c r="B31" s="490"/>
+      <c r="C31" s="490"/>
+      <c r="D31" s="491"/>
+      <c r="E31" s="436"/>
+      <c r="F31" s="436"/>
+      <c r="G31" s="492"/>
+      <c r="H31" s="493"/>
+      <c r="I31" s="494"/>
+      <c r="J31" s="495"/>
+      <c r="K31" s="382"/>
+      <c r="L31" s="382"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="439" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="491">
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="441"/>
+      <c r="E32" s="477">
         <f>SUM(E21:E31)</f>
-        <v>745790</v>
-      </c>
-      <c r="F32" s="492">
+        <v>9890430</v>
+      </c>
+      <c r="F32" s="478">
         <f>SUM(F21:F31)</f>
-        <v>820325</v>
-      </c>
-      <c r="G32" s="456">
+        <v>10532265</v>
+      </c>
+      <c r="G32" s="442">
         <f>SUM(G21:G31)</f>
-        <v>4.8828869047619045E-2</v>
-      </c>
-      <c r="H32" s="457">
+        <v>0.62692053571428574</v>
+      </c>
+      <c r="H32" s="443">
         <f>A21-F32</f>
-        <v>15979675</v>
-      </c>
-      <c r="I32" s="458">
+        <v>6267735</v>
+      </c>
+      <c r="I32" s="444">
         <f>1-G32</f>
-        <v>0.95117113095238093</v>
-      </c>
-      <c r="J32" s="654"/>
-      <c r="K32" s="459"/>
-      <c r="L32" s="459"/>
+        <v>0.37307946428571426</v>
+      </c>
+      <c r="J32" s="482"/>
+      <c r="K32" s="445"/>
+      <c r="L32" s="445"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="383"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="383"/>
-      <c r="F35" s="383"/>
-      <c r="G35" s="383"/>
-      <c r="H35" s="383"/>
-      <c r="I35" s="383"/>
-      <c r="J35" s="383"/>
+      <c r="A35" s="382"/>
+      <c r="B35" s="382"/>
+      <c r="C35" s="382"/>
+      <c r="D35" s="382"/>
+      <c r="E35" s="382"/>
+      <c r="F35" s="382"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="382"/>
+      <c r="J35" s="382"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="514" t="s">
+      <c r="A36" s="518" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="514"/>
-      <c r="C36" s="514"/>
-      <c r="D36" s="514"/>
-      <c r="E36" s="383"/>
-      <c r="F36" s="383"/>
-      <c r="G36" s="383"/>
-      <c r="H36" s="383"/>
-      <c r="I36" s="383"/>
-      <c r="J36" s="383"/>
+      <c r="B36" s="518"/>
+      <c r="C36" s="518"/>
+      <c r="D36" s="518"/>
+      <c r="E36" s="382"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="382"/>
+      <c r="I36" s="382"/>
+      <c r="J36" s="382"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="515" t="s">
+      <c r="A37" s="519" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="515"/>
-      <c r="C37" s="460" t="s">
+      <c r="B37" s="519"/>
+      <c r="C37" s="446" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="460" t="s">
+      <c r="D37" s="446" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="383"/>
-      <c r="F37" s="383"/>
-      <c r="G37" s="383"/>
-      <c r="H37" s="383"/>
-      <c r="I37" s="383"/>
-      <c r="J37" s="383"/>
+      <c r="E37" s="382"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="382"/>
+      <c r="H37" s="382"/>
+      <c r="I37" s="382"/>
+      <c r="J37" s="382"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="516">
+      <c r="A38" s="520">
         <f>A21-F32</f>
-        <v>15979675</v>
-      </c>
-      <c r="B38" s="517"/>
-      <c r="C38" s="461">
+        <v>6267735</v>
+      </c>
+      <c r="B38" s="521"/>
+      <c r="C38" s="447">
         <f>1-G32</f>
-        <v>0.95117113095238093</v>
-      </c>
-      <c r="D38" s="462">
+        <v>0.37307946428571426</v>
+      </c>
+      <c r="D38" s="448">
         <f>(C38/0.8)*100</f>
-        <v>118.89639136904762</v>
-      </c>
-      <c r="E38" s="463" t="s">
+        <v>46.634933035714283</v>
+      </c>
+      <c r="E38" s="449" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="463"/>
-      <c r="G38" s="463"/>
-      <c r="H38" s="463"/>
-      <c r="I38" s="463"/>
-      <c r="J38" s="463"/>
+      <c r="F38" s="449"/>
+      <c r="G38" s="449"/>
+      <c r="H38" s="449"/>
+      <c r="I38" s="449"/>
+      <c r="J38" s="449"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="383"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="383"/>
-      <c r="D39" s="383"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="383"/>
+      <c r="A39" s="382"/>
+      <c r="B39" s="382"/>
+      <c r="C39" s="382"/>
+      <c r="D39" s="382"/>
+      <c r="E39" s="382"/>
+      <c r="F39" s="382"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="383"/>
-      <c r="B40" s="383"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="383"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="383"/>
-      <c r="G40" s="383"/>
-      <c r="H40" s="383"/>
-      <c r="I40" s="383"/>
-      <c r="J40" s="383"/>
+      <c r="A40" s="382"/>
+      <c r="B40" s="382"/>
+      <c r="C40" s="382"/>
+      <c r="D40" s="382"/>
+      <c r="E40" s="382"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="382"/>
+      <c r="H40" s="382"/>
+      <c r="I40" s="382"/>
+      <c r="J40" s="382"/>
       <c r="K40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="464"/>
-      <c r="C41" s="464"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
+      <c r="A41" s="382"/>
+      <c r="B41" s="450"/>
+      <c r="C41" s="450"/>
+      <c r="D41" s="382"/>
+      <c r="E41" s="382"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="382"/>
+      <c r="H41" s="382"/>
+      <c r="I41" s="382"/>
+      <c r="J41" s="382"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
-      <c r="B42" s="465"/>
-      <c r="C42" s="465"/>
-      <c r="D42" s="465"/>
-      <c r="E42" s="465"/>
-      <c r="F42" s="465"/>
-      <c r="G42" s="465"/>
-      <c r="H42" s="465"/>
-      <c r="I42" s="518"/>
-      <c r="J42" s="519"/>
+      <c r="A42" s="451"/>
+      <c r="B42" s="451"/>
+      <c r="C42" s="451"/>
+      <c r="D42" s="451"/>
+      <c r="E42" s="451"/>
+      <c r="F42" s="451"/>
+      <c r="G42" s="451"/>
+      <c r="H42" s="451"/>
+      <c r="I42" s="522"/>
+      <c r="J42" s="523"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="466"/>
-      <c r="B43" s="467"/>
-      <c r="C43" s="467"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="F43" s="467"/>
-      <c r="G43" s="413"/>
-      <c r="H43" s="467"/>
+      <c r="A43" s="452"/>
+      <c r="B43" s="453"/>
+      <c r="C43" s="453"/>
+      <c r="D43" s="382"/>
+      <c r="E43" s="382"/>
+      <c r="F43" s="453"/>
+      <c r="G43" s="412"/>
+      <c r="H43" s="453"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="466"/>
-      <c r="B44" s="467"/>
-      <c r="C44" s="467"/>
-      <c r="D44" s="467"/>
-      <c r="E44" s="467"/>
-      <c r="F44" s="467"/>
-      <c r="G44" s="413"/>
-      <c r="H44" s="467"/>
+      <c r="A44" s="452"/>
+      <c r="B44" s="453"/>
+      <c r="C44" s="453"/>
+      <c r="D44" s="453"/>
+      <c r="E44" s="453"/>
+      <c r="F44" s="453"/>
+      <c r="G44" s="412"/>
+      <c r="H44" s="453"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="466"/>
-      <c r="B45" s="467"/>
-      <c r="C45" s="467"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="F45" s="467"/>
-      <c r="G45" s="413"/>
-      <c r="H45" s="467"/>
+      <c r="A45" s="452"/>
+      <c r="B45" s="453"/>
+      <c r="C45" s="453"/>
+      <c r="D45" s="382"/>
+      <c r="E45" s="382"/>
+      <c r="F45" s="453"/>
+      <c r="G45" s="412"/>
+      <c r="H45" s="453"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="466"/>
-      <c r="B46" s="467"/>
-      <c r="C46" s="467"/>
-      <c r="D46" s="467"/>
-      <c r="E46" s="467"/>
-      <c r="F46" s="467"/>
-      <c r="G46" s="413"/>
-      <c r="H46" s="467"/>
+      <c r="A46" s="452"/>
+      <c r="B46" s="453"/>
+      <c r="C46" s="453"/>
+      <c r="D46" s="453"/>
+      <c r="E46" s="453"/>
+      <c r="F46" s="453"/>
+      <c r="G46" s="412"/>
+      <c r="H46" s="453"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="466"/>
-      <c r="B47" s="467"/>
-      <c r="C47" s="467"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="383"/>
-      <c r="F47" s="467"/>
-      <c r="G47" s="413"/>
-      <c r="H47" s="467"/>
+      <c r="A47" s="452"/>
+      <c r="B47" s="453"/>
+      <c r="C47" s="453"/>
+      <c r="D47" s="382"/>
+      <c r="E47" s="382"/>
+      <c r="F47" s="453"/>
+      <c r="G47" s="412"/>
+      <c r="H47" s="453"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="466"/>
-      <c r="B48" s="467"/>
-      <c r="C48" s="403"/>
-      <c r="D48" s="468"/>
-      <c r="E48" s="468"/>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403"/>
+      <c r="A48" s="452"/>
+      <c r="B48" s="453"/>
+      <c r="C48" s="402"/>
+      <c r="D48" s="454"/>
+      <c r="E48" s="454"/>
+      <c r="F48" s="402"/>
+      <c r="G48" s="402"/>
+      <c r="H48" s="402"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="466"/>
-      <c r="B49" s="467"/>
-      <c r="C49" s="467"/>
-      <c r="D49" s="467"/>
-      <c r="E49" s="467"/>
-      <c r="F49" s="467"/>
-      <c r="G49" s="413"/>
-      <c r="H49" s="467"/>
+      <c r="A49" s="452"/>
+      <c r="B49" s="453"/>
+      <c r="C49" s="453"/>
+      <c r="D49" s="453"/>
+      <c r="E49" s="453"/>
+      <c r="F49" s="453"/>
+      <c r="G49" s="412"/>
+      <c r="H49" s="453"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="466"/>
-      <c r="B50" s="467"/>
-      <c r="C50" s="467"/>
-      <c r="D50" s="467"/>
-      <c r="E50" s="467"/>
-      <c r="F50" s="467"/>
-      <c r="G50" s="413"/>
-      <c r="H50" s="467"/>
+      <c r="A50" s="452"/>
+      <c r="B50" s="453"/>
+      <c r="C50" s="453"/>
+      <c r="D50" s="453"/>
+      <c r="E50" s="453"/>
+      <c r="F50" s="453"/>
+      <c r="G50" s="412"/>
+      <c r="H50" s="453"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="466"/>
-      <c r="B51" s="467"/>
-      <c r="C51" s="467"/>
-      <c r="D51" s="383"/>
-      <c r="E51" s="383"/>
-      <c r="F51" s="467"/>
-      <c r="G51" s="413"/>
-      <c r="H51" s="467"/>
+      <c r="A51" s="452"/>
+      <c r="B51" s="453"/>
+      <c r="C51" s="453"/>
+      <c r="D51" s="382"/>
+      <c r="E51" s="382"/>
+      <c r="F51" s="453"/>
+      <c r="G51" s="412"/>
+      <c r="H51" s="453"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="383"/>
-      <c r="B52" s="511"/>
-      <c r="C52" s="511"/>
-      <c r="D52" s="512"/>
-      <c r="E52" s="463"/>
-      <c r="F52" s="383"/>
-      <c r="G52" s="383"/>
-      <c r="H52" s="383"/>
-      <c r="I52" s="383"/>
-      <c r="J52" s="383"/>
+      <c r="A52" s="382"/>
+      <c r="B52" s="515"/>
+      <c r="C52" s="515"/>
+      <c r="D52" s="516"/>
+      <c r="E52" s="449"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="382"/>
+      <c r="H52" s="382"/>
+      <c r="I52" s="382"/>
+      <c r="J52" s="382"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="465"/>
-      <c r="B53" s="465"/>
-      <c r="C53" s="465"/>
-      <c r="D53" s="465"/>
-      <c r="E53" s="465"/>
-      <c r="F53" s="465"/>
-      <c r="G53" s="465"/>
-      <c r="H53" s="465"/>
-      <c r="I53" s="518"/>
-      <c r="J53" s="519"/>
+      <c r="A53" s="451"/>
+      <c r="B53" s="451"/>
+      <c r="C53" s="451"/>
+      <c r="D53" s="451"/>
+      <c r="E53" s="451"/>
+      <c r="F53" s="451"/>
+      <c r="G53" s="451"/>
+      <c r="H53" s="451"/>
+      <c r="I53" s="522"/>
+      <c r="J53" s="523"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="466"/>
-      <c r="B54" s="383"/>
-      <c r="C54" s="383"/>
-      <c r="D54" s="383"/>
-      <c r="E54" s="383"/>
-      <c r="F54" s="413"/>
-      <c r="G54" s="413"/>
-      <c r="H54" s="467"/>
-      <c r="I54" s="520"/>
-      <c r="J54" s="520"/>
+      <c r="A54" s="452"/>
+      <c r="B54" s="382"/>
+      <c r="C54" s="382"/>
+      <c r="D54" s="382"/>
+      <c r="E54" s="382"/>
+      <c r="F54" s="412"/>
+      <c r="G54" s="412"/>
+      <c r="H54" s="453"/>
+      <c r="I54" s="524"/>
+      <c r="J54" s="524"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="466"/>
-      <c r="B55" s="383"/>
-      <c r="C55" s="383"/>
-      <c r="D55" s="403"/>
-      <c r="E55" s="403"/>
-      <c r="F55" s="403"/>
-      <c r="G55" s="403"/>
-      <c r="H55" s="403"/>
-      <c r="I55" s="520"/>
-      <c r="J55" s="520"/>
+      <c r="A55" s="452"/>
+      <c r="B55" s="382"/>
+      <c r="C55" s="382"/>
+      <c r="D55" s="402"/>
+      <c r="E55" s="402"/>
+      <c r="F55" s="402"/>
+      <c r="G55" s="402"/>
+      <c r="H55" s="402"/>
+      <c r="I55" s="524"/>
+      <c r="J55" s="524"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="383"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="383"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="383"/>
+      <c r="A56" s="382"/>
+      <c r="B56" s="382"/>
+      <c r="C56" s="382"/>
+      <c r="D56" s="382"/>
+      <c r="E56" s="382"/>
+      <c r="F56" s="382"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="518"/>
-      <c r="C61" s="519"/>
+      <c r="B61" s="522"/>
+      <c r="C61" s="523"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="518"/>
-      <c r="C68" s="519"/>
+      <c r="B68" s="522"/>
+      <c r="C68" s="523"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10559,47 +10709,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="522" t="s">
+      <c r="A11" s="526" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="522"/>
-      <c r="C11" s="522"/>
-      <c r="D11" s="522"/>
-      <c r="E11" s="522"/>
-      <c r="F11" s="522"/>
-      <c r="G11" s="522"/>
-      <c r="H11" s="522"/>
-      <c r="I11" s="522"/>
-      <c r="J11" s="522"/>
+      <c r="B11" s="526"/>
+      <c r="C11" s="526"/>
+      <c r="D11" s="526"/>
+      <c r="E11" s="526"/>
+      <c r="F11" s="526"/>
+      <c r="G11" s="526"/>
+      <c r="H11" s="526"/>
+      <c r="I11" s="526"/>
+      <c r="J11" s="526"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="521" t="s">
+      <c r="A12" s="525" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="521"/>
-      <c r="C12" s="521"/>
-      <c r="D12" s="521"/>
-      <c r="E12" s="521"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="521"/>
-      <c r="H12" s="521"/>
-      <c r="I12" s="521"/>
-      <c r="J12" s="521"/>
+      <c r="B12" s="525"/>
+      <c r="C12" s="525"/>
+      <c r="D12" s="525"/>
+      <c r="E12" s="525"/>
+      <c r="F12" s="525"/>
+      <c r="G12" s="525"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="525"/>
+      <c r="J12" s="525"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="523" t="str">
+      <c r="A13" s="527" t="str">
         <f>Данные!A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="B13" s="522"/>
-      <c r="C13" s="522"/>
-      <c r="D13" s="522"/>
-      <c r="E13" s="522"/>
-      <c r="F13" s="522"/>
-      <c r="G13" s="522"/>
-      <c r="H13" s="522"/>
-      <c r="I13" s="522"/>
-      <c r="J13" s="522"/>
+      <c r="B13" s="526"/>
+      <c r="C13" s="526"/>
+      <c r="D13" s="526"/>
+      <c r="E13" s="526"/>
+      <c r="F13" s="526"/>
+      <c r="G13" s="526"/>
+      <c r="H13" s="526"/>
+      <c r="I13" s="526"/>
+      <c r="J13" s="526"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10724,493 +10874,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="527" t="s">
+      <c r="A22" s="531" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="527" t="s">
+      <c r="B22" s="531" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="527"/>
-      <c r="D22" s="527"/>
-      <c r="E22" s="527" t="s">
+      <c r="C22" s="531"/>
+      <c r="D22" s="531"/>
+      <c r="E22" s="531" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="527"/>
-      <c r="G22" s="545" t="s">
+      <c r="F22" s="531"/>
+      <c r="G22" s="549" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="527" t="s">
+      <c r="H22" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="527"/>
-      <c r="J22" s="527"/>
+      <c r="I22" s="531"/>
+      <c r="J22" s="531"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="527"/>
-      <c r="B23" s="527"/>
-      <c r="C23" s="527"/>
-      <c r="D23" s="527"/>
-      <c r="E23" s="527"/>
-      <c r="F23" s="527"/>
-      <c r="G23" s="545"/>
-      <c r="H23" s="527"/>
-      <c r="I23" s="527"/>
-      <c r="J23" s="527"/>
+      <c r="A23" s="531"/>
+      <c r="B23" s="531"/>
+      <c r="C23" s="531"/>
+      <c r="D23" s="531"/>
+      <c r="E23" s="531"/>
+      <c r="F23" s="531"/>
+      <c r="G23" s="549"/>
+      <c r="H23" s="531"/>
+      <c r="I23" s="531"/>
+      <c r="J23" s="531"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="528">
+      <c r="A24" s="532">
         <v>1</v>
       </c>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="544"/>
-      <c r="E24" s="530" t="str">
+      <c r="C24" s="547"/>
+      <c r="D24" s="548"/>
+      <c r="E24" s="534" t="str">
         <f>Данные!C14</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F24" s="531"/>
-      <c r="G24" s="534">
+      <c r="F24" s="535"/>
+      <c r="G24" s="538">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="536"/>
-      <c r="I24" s="537"/>
-      <c r="J24" s="538"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="541"/>
+      <c r="J24" s="542"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="529"/>
-      <c r="B25" s="524" t="str">
+      <c r="A25" s="533"/>
+      <c r="B25" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C25" s="525"/>
-      <c r="D25" s="526"/>
-      <c r="E25" s="532"/>
-      <c r="F25" s="533"/>
-      <c r="G25" s="535"/>
-      <c r="H25" s="539"/>
-      <c r="I25" s="540"/>
-      <c r="J25" s="541"/>
+      <c r="C25" s="529"/>
+      <c r="D25" s="530"/>
+      <c r="E25" s="536"/>
+      <c r="F25" s="537"/>
+      <c r="G25" s="539"/>
+      <c r="H25" s="543"/>
+      <c r="I25" s="544"/>
+      <c r="J25" s="545"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="528">
+      <c r="A26" s="532">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="546" t="s">
+      <c r="B26" s="550" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="547"/>
-      <c r="D26" s="548"/>
-      <c r="E26" s="530" t="str">
+      <c r="C26" s="551"/>
+      <c r="D26" s="552"/>
+      <c r="E26" s="534" t="str">
         <f>Данные!C15</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F26" s="531"/>
-      <c r="G26" s="534">
+      <c r="F26" s="535"/>
+      <c r="G26" s="538">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="536"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="538"/>
+      <c r="H26" s="540"/>
+      <c r="I26" s="541"/>
+      <c r="J26" s="542"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="529"/>
-      <c r="B27" s="524" t="str">
+      <c r="A27" s="533"/>
+      <c r="B27" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C27" s="525"/>
-      <c r="D27" s="526"/>
-      <c r="E27" s="532"/>
-      <c r="F27" s="533"/>
-      <c r="G27" s="535"/>
-      <c r="H27" s="539"/>
-      <c r="I27" s="540"/>
-      <c r="J27" s="541"/>
+      <c r="C27" s="529"/>
+      <c r="D27" s="530"/>
+      <c r="E27" s="536"/>
+      <c r="F27" s="537"/>
+      <c r="G27" s="539"/>
+      <c r="H27" s="543"/>
+      <c r="I27" s="544"/>
+      <c r="J27" s="545"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="528">
+      <c r="A28" s="532">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="546" t="s">
+      <c r="B28" s="550" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="547"/>
-      <c r="D28" s="548"/>
-      <c r="E28" s="530" t="str">
+      <c r="C28" s="551"/>
+      <c r="D28" s="552"/>
+      <c r="E28" s="534" t="str">
         <f>Данные!C16</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F28" s="531"/>
-      <c r="G28" s="534">
+      <c r="F28" s="535"/>
+      <c r="G28" s="538">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="536"/>
-      <c r="I28" s="537"/>
-      <c r="J28" s="538"/>
+      <c r="H28" s="540"/>
+      <c r="I28" s="541"/>
+      <c r="J28" s="542"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="529"/>
-      <c r="B29" s="524" t="str">
+      <c r="A29" s="533"/>
+      <c r="B29" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C29" s="525"/>
-      <c r="D29" s="526"/>
-      <c r="E29" s="532"/>
-      <c r="F29" s="533"/>
-      <c r="G29" s="535"/>
-      <c r="H29" s="539"/>
-      <c r="I29" s="540"/>
-      <c r="J29" s="541"/>
+      <c r="C29" s="529"/>
+      <c r="D29" s="530"/>
+      <c r="E29" s="536"/>
+      <c r="F29" s="537"/>
+      <c r="G29" s="539"/>
+      <c r="H29" s="543"/>
+      <c r="I29" s="544"/>
+      <c r="J29" s="545"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="528">
+      <c r="A30" s="532">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="546" t="s">
+      <c r="B30" s="550" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="547"/>
-      <c r="D30" s="548"/>
-      <c r="E30" s="530" t="str">
+      <c r="C30" s="551"/>
+      <c r="D30" s="552"/>
+      <c r="E30" s="534" t="str">
         <f>Данные!C17</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F30" s="531"/>
-      <c r="G30" s="534">
+      <c r="F30" s="535"/>
+      <c r="G30" s="538">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="536"/>
-      <c r="I30" s="537"/>
-      <c r="J30" s="538"/>
+      <c r="H30" s="540"/>
+      <c r="I30" s="541"/>
+      <c r="J30" s="542"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="529"/>
-      <c r="B31" s="524" t="str">
+      <c r="A31" s="533"/>
+      <c r="B31" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C31" s="525"/>
-      <c r="D31" s="526"/>
-      <c r="E31" s="549"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="535"/>
-      <c r="H31" s="539"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541"/>
+      <c r="C31" s="529"/>
+      <c r="D31" s="530"/>
+      <c r="E31" s="553"/>
+      <c r="F31" s="537"/>
+      <c r="G31" s="539"/>
+      <c r="H31" s="543"/>
+      <c r="I31" s="544"/>
+      <c r="J31" s="545"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="528">
+      <c r="A32" s="532">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="546" t="s">
+      <c r="B32" s="550" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="547"/>
-      <c r="D32" s="548"/>
-      <c r="E32" s="530" t="str">
+      <c r="C32" s="551"/>
+      <c r="D32" s="552"/>
+      <c r="E32" s="534" t="str">
         <f>Данные!C18</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F32" s="531"/>
-      <c r="G32" s="534">
+      <c r="F32" s="535"/>
+      <c r="G32" s="538">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="536"/>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
+      <c r="H32" s="540"/>
+      <c r="I32" s="541"/>
+      <c r="J32" s="542"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="529"/>
-      <c r="B33" s="524" t="str">
+      <c r="A33" s="533"/>
+      <c r="B33" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C33" s="525"/>
-      <c r="D33" s="526"/>
-      <c r="E33" s="549"/>
-      <c r="F33" s="533"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="540"/>
-      <c r="J33" s="541"/>
+      <c r="C33" s="529"/>
+      <c r="D33" s="530"/>
+      <c r="E33" s="553"/>
+      <c r="F33" s="537"/>
+      <c r="G33" s="539"/>
+      <c r="H33" s="543"/>
+      <c r="I33" s="544"/>
+      <c r="J33" s="545"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="528">
+      <c r="A34" s="532">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="546" t="s">
+      <c r="B34" s="550" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="547"/>
-      <c r="D34" s="548"/>
-      <c r="E34" s="530" t="str">
+      <c r="C34" s="551"/>
+      <c r="D34" s="552"/>
+      <c r="E34" s="534" t="str">
         <f>Данные!C19</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F34" s="531"/>
-      <c r="G34" s="534">
+      <c r="F34" s="535"/>
+      <c r="G34" s="538">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="H34" s="536"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="538"/>
+      <c r="H34" s="540"/>
+      <c r="I34" s="541"/>
+      <c r="J34" s="542"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="529"/>
-      <c r="B35" s="524" t="str">
+      <c r="A35" s="533"/>
+      <c r="B35" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C35" s="525"/>
-      <c r="D35" s="526"/>
-      <c r="E35" s="549"/>
-      <c r="F35" s="533"/>
-      <c r="G35" s="535"/>
-      <c r="H35" s="539"/>
-      <c r="I35" s="540"/>
-      <c r="J35" s="541"/>
+      <c r="C35" s="529"/>
+      <c r="D35" s="530"/>
+      <c r="E35" s="553"/>
+      <c r="F35" s="537"/>
+      <c r="G35" s="539"/>
+      <c r="H35" s="543"/>
+      <c r="I35" s="544"/>
+      <c r="J35" s="545"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="528">
+      <c r="A36" s="532">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="546" t="s">
+      <c r="B36" s="550" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="547"/>
-      <c r="D36" s="548"/>
-      <c r="E36" s="530" t="str">
+      <c r="C36" s="551"/>
+      <c r="D36" s="552"/>
+      <c r="E36" s="534" t="str">
         <f>Данные!C20</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F36" s="531"/>
-      <c r="G36" s="534">
+      <c r="F36" s="535"/>
+      <c r="G36" s="538">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="536"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
+      <c r="H36" s="540"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="529"/>
-      <c r="B37" s="524" t="str">
+      <c r="A37" s="533"/>
+      <c r="B37" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C37" s="525"/>
-      <c r="D37" s="526"/>
-      <c r="E37" s="549"/>
-      <c r="F37" s="533"/>
-      <c r="G37" s="535"/>
-      <c r="H37" s="539"/>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
+      <c r="C37" s="529"/>
+      <c r="D37" s="530"/>
+      <c r="E37" s="553"/>
+      <c r="F37" s="537"/>
+      <c r="G37" s="539"/>
+      <c r="H37" s="543"/>
+      <c r="I37" s="544"/>
+      <c r="J37" s="545"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="528">
+      <c r="A38" s="532">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="546" t="s">
+      <c r="B38" s="550" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="547"/>
-      <c r="D38" s="548"/>
-      <c r="E38" s="530" t="str">
+      <c r="C38" s="551"/>
+      <c r="D38" s="552"/>
+      <c r="E38" s="534" t="str">
         <f>Данные!C25</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F38" s="531"/>
-      <c r="G38" s="534">
+      <c r="F38" s="535"/>
+      <c r="G38" s="538">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="H38" s="536"/>
-      <c r="I38" s="537"/>
-      <c r="J38" s="538"/>
+      <c r="H38" s="540"/>
+      <c r="I38" s="541"/>
+      <c r="J38" s="542"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="529"/>
-      <c r="B39" s="524" t="str">
+      <c r="A39" s="533"/>
+      <c r="B39" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C39" s="525"/>
-      <c r="D39" s="526"/>
-      <c r="E39" s="549"/>
-      <c r="F39" s="533"/>
-      <c r="G39" s="535"/>
-      <c r="H39" s="539"/>
-      <c r="I39" s="540"/>
-      <c r="J39" s="541"/>
+      <c r="C39" s="529"/>
+      <c r="D39" s="530"/>
+      <c r="E39" s="553"/>
+      <c r="F39" s="537"/>
+      <c r="G39" s="539"/>
+      <c r="H39" s="543"/>
+      <c r="I39" s="544"/>
+      <c r="J39" s="545"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="528">
+      <c r="A40" s="532">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="546" t="s">
+      <c r="B40" s="550" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="547"/>
-      <c r="D40" s="548"/>
-      <c r="E40" s="530">
+      <c r="C40" s="551"/>
+      <c r="D40" s="552"/>
+      <c r="E40" s="534">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="531"/>
-      <c r="G40" s="534">
+      <c r="F40" s="535"/>
+      <c r="G40" s="538">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="536"/>
-      <c r="I40" s="537"/>
-      <c r="J40" s="538"/>
+      <c r="H40" s="540"/>
+      <c r="I40" s="541"/>
+      <c r="J40" s="542"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="529"/>
-      <c r="B41" s="524" t="str">
+      <c r="A41" s="533"/>
+      <c r="B41" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C41" s="525"/>
-      <c r="D41" s="526"/>
-      <c r="E41" s="549"/>
-      <c r="F41" s="533"/>
-      <c r="G41" s="535"/>
-      <c r="H41" s="539"/>
-      <c r="I41" s="540"/>
-      <c r="J41" s="541"/>
+      <c r="C41" s="529"/>
+      <c r="D41" s="530"/>
+      <c r="E41" s="553"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="539"/>
+      <c r="H41" s="543"/>
+      <c r="I41" s="544"/>
+      <c r="J41" s="545"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="528">
+      <c r="A42" s="532">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="546" t="s">
+      <c r="B42" s="550" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="547"/>
-      <c r="D42" s="548"/>
-      <c r="E42" s="530" t="str">
+      <c r="C42" s="551"/>
+      <c r="D42" s="552"/>
+      <c r="E42" s="534" t="str">
         <f>Данные!C26</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F42" s="531"/>
-      <c r="G42" s="534">
+      <c r="F42" s="535"/>
+      <c r="G42" s="538">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="536"/>
-      <c r="I42" s="537"/>
-      <c r="J42" s="538"/>
+      <c r="H42" s="540"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="529"/>
-      <c r="B43" s="524" t="str">
+      <c r="A43" s="533"/>
+      <c r="B43" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C43" s="525"/>
-      <c r="D43" s="526"/>
-      <c r="E43" s="549"/>
-      <c r="F43" s="533"/>
-      <c r="G43" s="535"/>
-      <c r="H43" s="539"/>
-      <c r="I43" s="540"/>
-      <c r="J43" s="541"/>
+      <c r="C43" s="529"/>
+      <c r="D43" s="530"/>
+      <c r="E43" s="553"/>
+      <c r="F43" s="537"/>
+      <c r="G43" s="539"/>
+      <c r="H43" s="543"/>
+      <c r="I43" s="544"/>
+      <c r="J43" s="545"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="528">
+      <c r="A44" s="532">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="546" t="s">
+      <c r="B44" s="550" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="547"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="530" t="str">
+      <c r="C44" s="551"/>
+      <c r="D44" s="552"/>
+      <c r="E44" s="534" t="str">
         <f>Данные!C27</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F44" s="531"/>
-      <c r="G44" s="534">
+      <c r="F44" s="535"/>
+      <c r="G44" s="538">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="536"/>
-      <c r="I44" s="537"/>
-      <c r="J44" s="538"/>
+      <c r="H44" s="540"/>
+      <c r="I44" s="541"/>
+      <c r="J44" s="542"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="529"/>
-      <c r="B45" s="524" t="str">
+      <c r="A45" s="533"/>
+      <c r="B45" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C45" s="525"/>
-      <c r="D45" s="526"/>
-      <c r="E45" s="549"/>
-      <c r="F45" s="533"/>
-      <c r="G45" s="535"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="540"/>
-      <c r="J45" s="541"/>
+      <c r="C45" s="529"/>
+      <c r="D45" s="530"/>
+      <c r="E45" s="553"/>
+      <c r="F45" s="537"/>
+      <c r="G45" s="539"/>
+      <c r="H45" s="543"/>
+      <c r="I45" s="544"/>
+      <c r="J45" s="545"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="528">
+      <c r="A46" s="532">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="546" t="s">
+      <c r="B46" s="550" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="547"/>
-      <c r="D46" s="548"/>
-      <c r="E46" s="530" t="str">
+      <c r="C46" s="551"/>
+      <c r="D46" s="552"/>
+      <c r="E46" s="534" t="str">
         <f>Данные!C24</f>
         <v>III-3-53-160-2</v>
       </c>
-      <c r="F46" s="531"/>
-      <c r="G46" s="534">
+      <c r="F46" s="535"/>
+      <c r="G46" s="538">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="536"/>
-      <c r="I46" s="537"/>
-      <c r="J46" s="538"/>
+      <c r="H46" s="540"/>
+      <c r="I46" s="541"/>
+      <c r="J46" s="542"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="529"/>
-      <c r="B47" s="524" t="str">
+      <c r="A47" s="533"/>
+      <c r="B47" s="528" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C47" s="525"/>
-      <c r="D47" s="526"/>
-      <c r="E47" s="549"/>
-      <c r="F47" s="533"/>
-      <c r="G47" s="535"/>
-      <c r="H47" s="539"/>
-      <c r="I47" s="540"/>
-      <c r="J47" s="541"/>
+      <c r="C47" s="529"/>
+      <c r="D47" s="530"/>
+      <c r="E47" s="553"/>
+      <c r="F47" s="537"/>
+      <c r="G47" s="539"/>
+      <c r="H47" s="543"/>
+      <c r="I47" s="544"/>
+      <c r="J47" s="545"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11473,47 +11623,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="568"/>
+      <c r="C2" s="569"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="577" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="585"/>
+      <c r="K2" s="588">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="589"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="580"/>
+      <c r="Q2" s="580"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="571"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="581" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="586"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="590"/>
+      <c r="L3" s="591"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11524,9 +11674,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11545,22 +11695,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="596"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11571,22 +11721,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="557"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="508"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11597,27 +11747,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="506">
+      <c r="C7" s="560"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="494">
+      <c r="J7" s="563"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11840,7 +11990,7 @@
       <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="376"/>
+      <c r="C15" s="375"/>
       <c r="D15" s="97">
         <v>0.1</v>
       </c>
@@ -12085,12 +12235,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="550" t="s">
+      <c r="B23" s="554" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="551"/>
-      <c r="D23" s="551"/>
-      <c r="E23" s="552"/>
+      <c r="C23" s="555"/>
+      <c r="D23" s="555"/>
+      <c r="E23" s="556"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12112,12 +12262,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="588" t="s">
+      <c r="B24" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="589"/>
-      <c r="D24" s="589"/>
-      <c r="E24" s="590"/>
+      <c r="C24" s="593"/>
+      <c r="D24" s="593"/>
+      <c r="E24" s="594"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12160,25 +12310,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="563" t="s">
+      <c r="K27" s="567" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="563"/>
-      <c r="M27" s="563"/>
-      <c r="N27" s="473"/>
-      <c r="O27" s="473"/>
-      <c r="P27" s="489"/>
-      <c r="Q27" s="489"/>
+      <c r="L27" s="567"/>
+      <c r="M27" s="567"/>
+      <c r="N27" s="459"/>
+      <c r="O27" s="459"/>
+      <c r="P27" s="475"/>
+      <c r="Q27" s="475"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="560" t="s">
+      <c r="N28" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="560"/>
-      <c r="P28" s="561" t="s">
+      <c r="O28" s="564"/>
+      <c r="P28" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="562"/>
+      <c r="Q28" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12270,50 +12420,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="599">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="580"/>
+      <c r="Q2" s="580"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12324,9 +12474,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12345,22 +12495,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12371,22 +12521,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12397,27 +12547,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12580,7 +12730,7 @@
       <c r="B13" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -12608,12 +12758,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="597" t="s">
+      <c r="B14" s="601" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="598"/>
-      <c r="D14" s="598"/>
-      <c r="E14" s="598"/>
+      <c r="C14" s="602"/>
+      <c r="D14" s="602"/>
+      <c r="E14" s="602"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12635,13 +12785,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="550" t="s">
+      <c r="B15" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="551"/>
-      <c r="D15" s="551"/>
-      <c r="E15" s="551"/>
-      <c r="F15" s="596"/>
+      <c r="C15" s="555"/>
+      <c r="D15" s="555"/>
+      <c r="E15" s="555"/>
+      <c r="F15" s="600"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12660,12 +12810,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="593"/>
+      <c r="E16" s="594"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12712,25 +12862,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="563" t="s">
+      <c r="L19" s="567" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="563"/>
-      <c r="N19" s="563"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="567"/>
+      <c r="N19" s="567"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="475"/>
+      <c r="R19" s="475"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="564"/>
+      <c r="Q20" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12831,47 +12981,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="568"/>
+      <c r="C2" s="569"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="577" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="585"/>
+      <c r="K2" s="588">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="589"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="580"/>
+      <c r="Q2" s="580"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="571"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="581" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="586"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="590"/>
+      <c r="L3" s="591"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12882,9 +13032,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12903,22 +13053,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="596"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12929,22 +13079,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="557"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="508"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12955,27 +13105,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="506">
+      <c r="C7" s="560"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="494">
+      <c r="J7" s="563"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13148,7 +13298,7 @@
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13435,25 +13585,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="628" t="s">
+      <c r="L23" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="628"/>
-      <c r="N23" s="628"/>
-      <c r="O23" s="473"/>
-      <c r="P23" s="473"/>
-      <c r="Q23" s="489"/>
-      <c r="R23" s="489"/>
+      <c r="M23" s="632"/>
+      <c r="N23" s="632"/>
+      <c r="O23" s="459"/>
+      <c r="P23" s="459"/>
+      <c r="Q23" s="475"/>
+      <c r="R23" s="475"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="560" t="s">
+      <c r="O24" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="560"/>
-      <c r="Q24" s="561" t="s">
+      <c r="P24" s="564"/>
+      <c r="Q24" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="562"/>
+      <c r="R24" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13545,47 +13695,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="568"/>
+      <c r="C2" s="569"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="577" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="585"/>
+      <c r="K2" s="588">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="589"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="571"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="581" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="586"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="590"/>
+      <c r="L3" s="591"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13596,9 +13746,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13617,22 +13767,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="596"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13643,22 +13793,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="557"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="508"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13669,27 +13819,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="506">
+      <c r="C7" s="560"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="494">
+      <c r="J7" s="563"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13757,7 +13907,7 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="377"/>
+      <c r="C10" s="376"/>
       <c r="D10" s="44">
         <v>0.05</v>
       </c>
@@ -13969,25 +14119,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="628" t="s">
+      <c r="L18" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="628"/>
-      <c r="N18" s="628"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="632"/>
+      <c r="N18" s="632"/>
+      <c r="O18" s="459"/>
+      <c r="P18" s="459"/>
+      <c r="Q18" s="475"/>
+      <c r="R18" s="475"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="564"/>
+      <c r="Q19" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14083,60 +14233,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="619"/>
-      <c r="M2" s="630"/>
-      <c r="N2" s="631"/>
-      <c r="O2" s="631"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
-      <c r="R2" s="632"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="635"/>
+      <c r="O2" s="635"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
+      <c r="R2" s="636"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
-      <c r="M3" s="633"/>
-      <c r="N3" s="634"/>
-      <c r="O3" s="634"/>
-      <c r="P3" s="634"/>
-      <c r="Q3" s="634"/>
-      <c r="R3" s="635"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
+      <c r="M3" s="637"/>
+      <c r="N3" s="638"/>
+      <c r="O3" s="638"/>
+      <c r="P3" s="638"/>
+      <c r="Q3" s="638"/>
+      <c r="R3" s="639"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14145,95 +14295,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="633"/>
-      <c r="N4" s="634"/>
-      <c r="O4" s="634"/>
-      <c r="P4" s="634"/>
-      <c r="Q4" s="634"/>
-      <c r="R4" s="635"/>
+      <c r="M4" s="637"/>
+      <c r="N4" s="638"/>
+      <c r="O4" s="638"/>
+      <c r="P4" s="638"/>
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
-      <c r="M5" s="633"/>
-      <c r="N5" s="634"/>
-      <c r="O5" s="634"/>
-      <c r="P5" s="634"/>
-      <c r="Q5" s="634"/>
-      <c r="R5" s="635"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
+      <c r="M5" s="637"/>
+      <c r="N5" s="638"/>
+      <c r="O5" s="638"/>
+      <c r="P5" s="638"/>
+      <c r="Q5" s="638"/>
+      <c r="R5" s="639"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
-      <c r="M6" s="633"/>
-      <c r="N6" s="634"/>
-      <c r="O6" s="634"/>
-      <c r="P6" s="634"/>
-      <c r="Q6" s="634"/>
-      <c r="R6" s="635"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
+      <c r="M6" s="637"/>
+      <c r="N6" s="638"/>
+      <c r="O6" s="638"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="638"/>
+      <c r="R6" s="639"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
-      <c r="M7" s="633"/>
-      <c r="N7" s="634"/>
-      <c r="O7" s="634"/>
-      <c r="P7" s="634"/>
-      <c r="Q7" s="634"/>
-      <c r="R7" s="635"/>
+      <c r="L7" s="499"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="638"/>
+      <c r="O7" s="638"/>
+      <c r="P7" s="638"/>
+      <c r="Q7" s="638"/>
+      <c r="R7" s="639"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14383,36 +14533,36 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="484" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="474"/>
-      <c r="B13" s="475" t="s">
+    <row r="13" spans="1:19" s="470" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="460"/>
+      <c r="B13" s="461" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="476"/>
-      <c r="D13" s="477">
+      <c r="C13" s="462"/>
+      <c r="D13" s="463">
         <v>0.03</v>
       </c>
-      <c r="E13" s="477">
+      <c r="E13" s="463">
         <v>0</v>
       </c>
-      <c r="F13" s="478" t="s">
+      <c r="F13" s="464" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="479"/>
-      <c r="I13" s="480"/>
-      <c r="J13" s="480"/>
-      <c r="K13" s="480"/>
-      <c r="L13" s="480"/>
-      <c r="M13" s="481"/>
-      <c r="N13" s="481"/>
-      <c r="O13" s="481"/>
-      <c r="P13" s="481"/>
-      <c r="Q13" s="481"/>
-      <c r="R13" s="482"/>
-      <c r="S13" s="483"/>
+      <c r="H13" s="465"/>
+      <c r="I13" s="466"/>
+      <c r="J13" s="466"/>
+      <c r="K13" s="466"/>
+      <c r="L13" s="466"/>
+      <c r="M13" s="467"/>
+      <c r="N13" s="467"/>
+      <c r="O13" s="467"/>
+      <c r="P13" s="467"/>
+      <c r="Q13" s="467"/>
+      <c r="R13" s="468"/>
+      <c r="S13" s="469"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14574,7 +14724,7 @@
       <c r="B19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="376"/>
+      <c r="C19" s="375"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
       <c r="F19" s="114"/>
@@ -14625,12 +14775,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="588" t="s">
+      <c r="B21" s="592" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="589"/>
-      <c r="D21" s="589"/>
-      <c r="E21" s="590"/>
+      <c r="C21" s="593"/>
+      <c r="D21" s="593"/>
+      <c r="E21" s="594"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14675,25 +14825,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="628" t="s">
+      <c r="L24" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="628"/>
-      <c r="N24" s="628"/>
-      <c r="O24" s="473"/>
-      <c r="P24" s="473"/>
-      <c r="Q24" s="489"/>
-      <c r="R24" s="489"/>
+      <c r="M24" s="632"/>
+      <c r="N24" s="632"/>
+      <c r="O24" s="459"/>
+      <c r="P24" s="459"/>
+      <c r="Q24" s="475"/>
+      <c r="R24" s="475"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="560" t="s">
+      <c r="O25" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="560"/>
-      <c r="Q25" s="561" t="s">
+      <c r="P25" s="564"/>
+      <c r="Q25" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="562"/>
+      <c r="R25" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14783,47 +14933,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14834,9 +14984,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14855,22 +15005,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14881,22 +15031,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>III-3-53-160-2 (Банка 0,16 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14907,27 +15057,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15052,36 +15202,36 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="474"/>
-      <c r="B12" s="485" t="s">
+    <row r="12" spans="1:19" s="470" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="460"/>
+      <c r="B12" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="486"/>
-      <c r="D12" s="480">
+      <c r="C12" s="472"/>
+      <c r="D12" s="466">
         <v>0</v>
       </c>
-      <c r="E12" s="480">
+      <c r="E12" s="466">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="478" t="s">
+      <c r="F12" s="464" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="487"/>
-      <c r="I12" s="480"/>
-      <c r="J12" s="480"/>
-      <c r="K12" s="480"/>
-      <c r="L12" s="480"/>
-      <c r="M12" s="480"/>
-      <c r="N12" s="480"/>
-      <c r="O12" s="480"/>
-      <c r="P12" s="480"/>
-      <c r="Q12" s="480"/>
-      <c r="R12" s="488"/>
-      <c r="S12" s="483"/>
+      <c r="H12" s="473"/>
+      <c r="I12" s="466"/>
+      <c r="J12" s="466"/>
+      <c r="K12" s="466"/>
+      <c r="L12" s="466"/>
+      <c r="M12" s="466"/>
+      <c r="N12" s="466"/>
+      <c r="O12" s="466"/>
+      <c r="P12" s="466"/>
+      <c r="Q12" s="466"/>
+      <c r="R12" s="474"/>
+      <c r="S12" s="469"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15178,12 +15328,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="592" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="593"/>
+      <c r="E16" s="594"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15228,25 +15378,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="628" t="s">
+      <c r="L19" s="632" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="628"/>
-      <c r="N19" s="628"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="632"/>
+      <c r="N19" s="632"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="475"/>
+      <c r="R19" s="475"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="564" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="564"/>
+      <c r="Q20" s="565" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="22">
